--- a/data_excel/接口测试用例_ (5).xlsx
+++ b/data_excel/接口测试用例_ (5).xlsx
@@ -582,11 +582,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-28 19:39:57', 'ftime': '2019-09-28 19:39:57', 'context': '【河北省石家庄市深泽县公司】 已收件 取件人: 吕佳 (13230180888)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-03 10:07:11', 'context': '查无结果', 'ftime': '2019-09-03 10:07:11'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.07147100000000001</v>
+        <v>0.071409</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.010541</v>
+        <v>0.009462999999999999</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -697,11 +697,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 01:21:20', 'ftime': '2019-09-29 01:21:20', 'context': '[江苏苏州分拨中心]进行装车扫描，发往：河南郑州分拨中心', 'location': '江苏苏州分拨中心'}, {'time': '2019-09-29 01:16:03', 'ftime': '2019-09-29 01:16:03', 'context': '[江苏苏州分拨中心]进行中转集包扫描，发往：河南郑州公司', 'location': '江苏苏州分拨中心'}, {'time': '2019-09-29 01:11:23', 'ftime': '2019-09-29 01:11:23', 'context': '[江苏苏州分拨中心]在分拨中心进行称重扫描', 'location': '江苏苏州分拨中心'}, {'time': '2019-09-28 20:32:38', 'ftime': '2019-09-28 20:32:38', 'context': '[江苏主城区公司新常熟服务部国际服装城分部]进行揽件扫描', 'location': '江苏主城区公司新常熟服务部国际服装城分部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-10 10:28:17', 'ftime': '2018-11-10 10:28:17', 'context': '订单已由公司前台代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-10 08:04:58', 'ftime': '2018-11-10 08:04:58', 'context': '配送员开始配送，请您准备收货，配送员，杜飞亚，手机号，15726796809', 'location': None}, {'time': '2018-11-10 06:54:32', 'ftime': '2018-11-10 06:54:32', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-10 06:54:31', 'ftime': '2018-11-10 06:54:31', 'context': '货物已到达【城关站】', 'location': None}, {'time': '2018-11-09 15:24:57', 'ftime': '2018-11-09 15:24:57', 'context': '货物已完成分拣，离开【拉萨中转场】', 'location': None}, {'time': '2018-11-03 23:54:39', 'ftime': '2018-11-03 23:54:39', 'context': '货物已完成分拣，离开【成都青白江分拣中心】', 'location': None}, {'time': '2018-11-03 23:22:18', 'ftime': '2018-11-03 23:22:18', 'context': '货物已到达【成都青白江分拣中心】', 'location': None}, {'time': '2018-11-03 23:15:28', 'ftime': '2018-11-03 23:15:28', 'context': '货物已到达【成都青白江分拣中心】', 'location': None}, {'time': '2018-11-03 23:15:07', 'ftime': '2018-11-03 23:15:07', 'context': '货物已到达【成都青白江分拣中心】', 'location': None}, {'time': '2018-11-03 00:14:08', 'ftime': '2018-11-03 00:14:08', 'context': '货物已完成分拣，离开【郑州外单分拨中心】', 'location': None}, {'time': '2018-11-03 00:10:53', 'ftime': '2018-11-03 00:10:53', 'context': '货物已到达【郑州外单分拨中心】', 'location': None}, {'time': '2018-11-02 20:03:23', 'ftime': '2018-11-02 20:03:23', 'context': '货物已完成分拣，离开【驻马店分拨中心】', 'location': None}, {'time': '2018-11-02 20:02:17', 'ftime': '2018-11-02 20:02:17', 'context': '货物已到达【驻马店分拨中心】', 'location': None}, {'time': '2018-11-02 16:05:44', 'ftime': '2018-11-02 16:05:44', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-11-02 16:05:44', 'ftime': '2018-11-02 16:05:44', 'context': '配送员吴友战已经揽收完成', 'location': None}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.069714</v>
+        <v>0.071863</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.010566</v>
+        <v>0.009631000000000001</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -805,11 +805,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 07:10:00', 'ftime': '2019-09-29 07:10:00', 'context': '货物已到达广州越秀区黄华路快递分部', 'location': '广州市'}, {'time': '2019-09-29 05:44:11', 'ftime': '2019-09-29 05:44:11', 'context': '运输中，离开【广州转运中心】，下一站【广州越秀区黄华路快递分部】', 'location': '广州市'}, {'time': '2019-09-29 01:09:57', 'ftime': '2019-09-29 01:09:57', 'context': '货物已到达广州转运中心', 'location': '广州市'}, {'time': '2019-09-29 00:04:00', 'ftime': '2019-09-29 00:04:00', 'context': '运输中，离开【顺德枢纽中心】，下一站【广州转运中心】', 'location': '佛山市'}, {'time': '2019-09-28 20:40:05', 'ftime': '2019-09-28 20:40:05', 'context': '货物已到达顺德枢纽中心', 'location': '佛山市'}, {'time': '2019-09-28 19:50:47', 'ftime': '2019-09-28 19:50:47', 'context': '运输中，离开【顺德杏坛营业部】，下一站【顺德枢纽中心】', 'location': '佛山市'}, {'time': '2019-09-28 18:12:02', 'ftime': '2019-09-28 18:12:02', 'context': '您的订单已被收件员揽收,【顺德杏坛营业部】库存中', 'location': '佛山市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 08:56:18', 'ftime': '2019-09-29 08:56:18', 'context': '广东龙岗荷坳营业点-龙关云(18126234263,0755-36909222)-派件中', 'location': ''}, {'time': '2019-09-29 08:00:23', 'ftime': '2019-09-29 08:00:23', 'context': '已到达-广东龙岗荷坳营业点', 'location': ''}, {'time': '2019-09-28 20:38:40', 'ftime': '2019-09-28 20:38:40', 'context': '深圳龙岗集散中心-已发往-广东龙岗荷坳营业点', 'location': ''}, {'time': '2019-09-28 20:38:16', 'ftime': '2019-09-28 20:38:16', 'context': '已到达-深圳龙岗集散中心', 'location': ''}, {'time': '2019-09-28 20:38:16', 'ftime': '2019-09-28 20:38:16', 'context': '快件已在【深圳龙岗集散中心】进行卸车，扫描员【进港到件1】', 'location': ''}, {'time': '2019-09-28 14:42:45', 'ftime': '2019-09-28 14:42:45', 'context': '广东深圳转运中心-已发往-深圳龙岗集散中心', 'location': ''}, {'time': '2019-09-28 14:42:45', 'ftime': '2019-09-28 14:42:45', 'context': '广东深圳转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 14:41:02', 'ftime': '2019-09-28 14:41:02', 'context': '已到达-广东深圳转运中心', 'location': ''}, {'time': '2019-09-28 14:41:02', 'ftime': '2019-09-28 14:41:02', 'context': '快件已在【广东深圳转运中心】进行卸车，扫描员【张少坤】', 'location': ''}, {'time': '2019-09-27 20:46:01', 'ftime': '2019-09-27 20:46:01', 'context': '浙江永康公司-已发往-广东深圳转运中心', 'location': ''}, {'time': '2019-09-27 20:46:01', 'ftime': '2019-09-27 20:46:01', 'context': '浙江永康公司-已进行装车扫描', 'location': ''}, {'time': '2019-09-27 20:45:21', 'ftime': '2019-09-27 20:45:21', 'context': '浙江武义公司-武义公司321200(0579-87633890)-已收件', 'location': ''}, {'time': '2019-09-27 18:14:06', 'ftime': '2019-09-27 18:14:06', 'context': '浙江武义公司-武义公司(15215886366)-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.06748800000000001</v>
+        <v>0.069274</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.010384</v>
+        <v>0.008604000000000001</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -911,11 +911,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 02:29:26', 'ftime': '2019-09-29 02:29:26', 'context': '【长春转运中心】 已发出 下一站 【吉林省吉林市接驳点公司】', 'location': ''}, {'time': '2019-09-29 02:25:44', 'ftime': '2019-09-29 02:25:44', 'context': '【长春转运中心】 已收入', 'location': ''}, {'time': '2019-09-27 03:45:35', 'ftime': '2019-09-27 03:45:35', 'context': '【金华转运中心】 已发出 下一站 【长春转运中心】', 'location': ''}, {'time': '2019-09-26 23:57:58', 'ftime': '2019-09-26 23:57:58', 'context': '【金华转运中心】 已收入', 'location': ''}, {'time': '2019-09-26 20:31:07', 'ftime': '2019-09-26 20:31:07', 'context': '【浙江省丽水市缙云县】 已发出 下一站 【金华转运中心】', 'location': ''}, {'time': '2019-09-26 20:29:51', 'ftime': '2019-09-26 20:29:51', 'context': '【浙江省丽水市缙云县公司】 已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 09:06:43', 'ftime': '2019-09-29 09:06:43', 'context': '[河北武安市公司]进行派件扫描；派送业务员：二庄代转件；联系电话：15383808656', 'location': '河北武安市公司'}, {'time': '2019-09-29 06:44:18', 'ftime': '2019-09-29 06:44:18', 'context': '[河北武安市公司]到达目的地网点，快件很快进行派送', 'location': '河北武安市公司'}, {'time': '2019-09-28 18:39:57', 'ftime': '2019-09-28 18:39:57', 'context': '[河北石家庄分拨中心]从站点发出，本次转运目的地：河北武安市公司', 'location': '河北石家庄分拨中心'}, {'time': '2019-09-28 18:35:10', 'ftime': '2019-09-28 18:35:10', 'context': '[河北石家庄分拨中心]在分拨中心进行卸车扫描', 'location': '河北石家庄分拨中心'}, {'time': '2019-09-28 01:14:31', 'ftime': '2019-09-28 01:14:31', 'context': '[陕西西安分拨中心]进行装车扫描，发往：河北石家庄分拨中心', 'location': '陕西西安分拨中心'}, {'time': '2019-09-28 01:12:20', 'ftime': '2019-09-28 01:12:20', 'context': '[陕西西安分拨中心]在分拨中心进行称重扫描', 'location': '陕西西安分拨中心'}, {'time': '2019-09-27 11:24:27', 'ftime': '2019-09-27 11:24:27', 'context': '[甘肃庄浪县公司]进行揽件扫描', 'location': '甘肃庄浪县公司'}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.071704</v>
+        <v>0.072507</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.00843</v>
+        <v>0.009738</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1017,11 +1017,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 06:22:37', 'ftime': '2019-09-29 06:22:37', 'context': '已到达-浙江温岭公司', 'location': ''}, {'time': '2019-09-28 22:00:42', 'ftime': '2019-09-28 22:00:42', 'context': '派送不成功-原因：送无人,电话联系明日送', 'location': ''}, {'time': '2019-09-28 09:08:24', 'ftime': '2019-09-28 09:08:24', 'context': '已到达-浙江温岭公司', 'location': ''}, {'time': '2019-09-28 04:38:41', 'ftime': '2019-09-28 04:38:41', 'context': '浙江临海转运中心-已发往-浙江温岭公司', 'location': ''}, {'time': '2019-09-28 04:28:14', 'ftime': '2019-09-28 04:28:14', 'context': '已到达-浙江临海转运中心', 'location': ''}, {'time': '2019-09-27 10:05:30', 'ftime': '2019-09-27 10:05:30', 'context': '浙江杭州中转部-已装袋发往-浙江临海转运中心', 'location': ''}, {'time': '2019-09-27 10:05:30', 'ftime': '2019-09-27 10:05:30', 'context': '浙江杭州中转部-已进行装车扫描', 'location': ''}, {'time': '2019-09-27 06:23:25', 'ftime': '2019-09-27 06:23:25', 'context': '浙江杭州中转部-已发往-浙江临海转运中心', 'location': ''}, {'time': '2019-09-27 06:23:25', 'ftime': '2019-09-27 06:23:25', 'context': '浙江杭州中转部-已进行装袋扫描', 'location': ''}, {'time': '2019-09-27 06:05:23', 'ftime': '2019-09-27 06:05:23', 'context': '已到达-浙江杭州中转部', 'location': ''}, {'time': '2019-09-26 19:41:52', 'ftime': '2019-09-26 19:41:52', 'context': '浙江临海转运中心-已装袋发往-浙江杭州中转部', 'location': ''}, {'time': '2019-09-26 19:41:52', 'ftime': '2019-09-26 19:41:52', 'context': '浙江临海转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-26 19:17:01', 'ftime': '2019-09-26 19:17:01', 'context': '浙江临海转运中心-已发往-浙江杭州中转部', 'location': ''}, {'time': '2019-09-26 19:17:01', 'ftime': '2019-09-26 19:17:01', 'context': '浙江临海转运中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-26 18:57:33', 'ftime': '2019-09-26 18:57:33', 'context': '已到达-浙江临海转运中心', 'location': ''}, {'time': '2019-09-26 02:34:03', 'ftime': '2019-09-26 02:34:03', 'context': '派送不成功-原因：网络错分件,电话：0576-85993618、0576-85693553', 'location': ''}, {'time': '2019-09-25 10:16:06', 'ftime': '2019-09-25 10:16:06', 'context': '浙江杭州中转部-已装袋发往-浙江临海转运中心', 'location': ''}, {'time': '2019-09-25 10:16:06', 'ftime': '2019-09-25 10:16:06', 'context': '浙江杭州中转部-已进行装车扫描', 'location': ''}, {'time': '2019-09-25 07:10:04', 'ftime': '2019-09-25 07:10:04', 'context': '浙江杭州中转部-已发往-浙江临海转运中心', 'location': ''}, {'time': '2019-09-25 07:10:04', 'ftime': '2019-09-25 07:10:04', 'context': '浙江杭州中转部-已进行装袋扫描', 'location': ''}, {'time': '2019-09-25 06:52:31', 'ftime': '2019-09-25 06:52:31', 'context': '已到达-浙江杭州中转部', 'location': ''}, {'time': '2019-09-24 21:35:01', 'ftime': '2019-09-24 21:35:01', 'context': '浙江杭州城北分拨中心-已装袋发往-浙江杭州中转部', 'location': ''}, {'time': '2019-09-24 21:35:01', 'ftime': '2019-09-24 21:35:01', 'context': '浙江杭州城北分拨中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-24 19:19:39', 'ftime': '2019-09-24 19:19:39', 'context': '浙江杭州城北分拨中心-已发往-浙江杭州中转部', 'location': ''}, {'time': '2019-09-24 19:19:39', 'ftime': '2019-09-24 19:19:39', 'context': '浙江杭州城北分拨中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-24 19:14:56', 'ftime': '2019-09-24 19:14:56', 'context': '已到达-浙江杭州城北分拨中心', 'location': ''}, {'time': '2019-09-24 18:52:08', 'ftime': '2019-09-24 18:52:08', 'context': '浙江杭州吴家墩公司-彭程(13396537765)-已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-05 10:07:12', 'context': '查无结果', 'ftime': '2019-09-05 10:07:12'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.073126</v>
+        <v>0.070267</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.009124999999999999</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1132,11 +1132,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-13 09:46:53', 'ftime': '2019-09-13 09:46:53', 'context': '[长宁区古北营业部]在 上海市 已签收,收发室：周建中,投递员:张乐,电话:18939935081', 'location': '长宁区古北营业部'}, {'time': '2019-09-13 08:28:27', 'ftime': '2019-09-13 08:28:27', 'context': '【长宁区古北营业部】安排投递,投递员:张乐,电话:18939935081', 'location': '长宁区古北营业部'}, {'time': '2019-09-13 07:08:53', 'ftime': '2019-09-13 07:08:53', 'context': '【长宁区古北营业部】安排投递,投递员:韩先鲁,电话:15618610892', 'location': '长宁区古北营业部'}, {'time': '2019-09-13 06:30:51', 'ftime': '2019-09-13 06:30:51', 'context': '到达【长宁区古北营业部】', 'location': '长宁区古北营业部'}, {'time': '2019-09-13 05:49:59', 'ftime': '2019-09-13 05:49:59', 'context': '离开【上海市徐德路处理中心】,下一站【长宁区古北营业部】', 'location': '上海市徐德路处理中心'}, {'time': '2019-09-12 19:35:45', 'ftime': '2019-09-12 19:35:45', 'context': '到达【上海市徐德路处理中心】', 'location': '上海市徐德路处理中心'}, {'time': '2019-09-12 18:45:30', 'ftime': '2019-09-12 18:45:30', 'context': '离开【黄浦外滩揽投部】,下一站【沪徐德速】', 'location': '黄浦外滩揽投部'}, {'time': '2019-09-12 17:37:47', 'ftime': '2019-09-12 17:37:47', 'context': '上海市 【黄浦外滩揽投部】已收件,揽投员:张志扬,电话:18918381719', 'location': '黄浦外滩揽投部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 07:39:35', 'ftime': '2019-09-29 07:39:35', 'context': '[内蒙古呼和浩特如意开发区公司]进行派件扫描；派送业务员：白利兵；联系电话：18100475489', 'location': '内蒙古呼和浩特如意开发区公司'}, {'time': '2019-09-27 13:01:27', 'ftime': '2019-09-27 13:01:27', 'context': '[内蒙古呼和浩特如意开发区公司]到达目的地网点，快件很快进行派送', 'location': '内蒙古呼和浩特如意开发区公司'}, {'time': '2019-09-27 10:44:57', 'ftime': '2019-09-27 10:44:57', 'context': '[内蒙古呼和浩特分拨中心]从站点发出，本次转运目的地：内蒙古呼和浩特如意开发区公司', 'location': '内蒙古呼和浩特分拨中心'}, {'time': '2019-09-27 09:23:30', 'ftime': '2019-09-27 09:23:30', 'context': '[内蒙古呼和浩特分拨中心]在分拨中心进行卸车扫描', 'location': '内蒙古呼和浩特分拨中心'}, {'time': '2019-09-26 04:24:58', 'ftime': '2019-09-26 04:24:58', 'context': '[江苏苏州分拨中心]进行装车扫描，发往：内蒙古呼和浩特分拨中心', 'location': '江苏苏州分拨中心'}, {'time': '2019-09-26 04:23:26', 'ftime': '2019-09-26 04:23:26', 'context': '[江苏苏州分拨中心]在分拨中心进行卸车扫描', 'location': '江苏苏州分拨中心'}, {'time': '2019-09-26 02:10:05', 'ftime': '2019-09-26 02:10:05', 'context': '[上海分拨中心]进行装车扫描，发往：江苏苏州分拨中心', 'location': '上海分拨中心'}, {'time': '2019-09-26 00:35:42', 'ftime': '2019-09-26 00:35:42', 'context': '[上海分拨中心]进行中转集包扫描，发往：呼市市内包', 'location': '上海分拨中心'}, {'time': '2019-09-25 23:34:23', 'ftime': '2019-09-25 23:34:23', 'context': '[上海分拨中心]在分拨中心进行称重扫描', 'location': '上海分拨中心'}, {'time': '2019-09-25 16:47:45', 'ftime': '2019-09-25 16:47:45', 'context': '[上海长宁区西部公司市场部项目部]进行揽件扫描', 'location': '上海长宁区西部公司市场部项目部'}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.07015200000000001</v>
+        <v>0.073337</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.010847</v>
+        <v>0.010515</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1256,11 +1256,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-20 20:18:34', 'ftime': '2019-09-20 20:18:34', 'context': '[福建泉州公司]快件已被 拍照 签收', 'location': '福建泉州公司'}, {'time': '2019-09-20 19:49:42', 'ftime': '2019-09-20 19:49:42', 'context': '[福建泉州公司]进行派件扫描；派送业务员：唐英博；联系电话：13004855594', 'location': '福建泉州公司'}, {'time': '2019-09-20 18:50:10', 'ftime': '2019-09-20 18:50:10', 'context': '[福建晋江分拨中心]从站点发出，本次转运目的地：福建泉州公司', 'location': '福建晋江分拨中心'}, {'time': '2019-09-20 18:24:03', 'ftime': '2019-09-20 18:24:03', 'context': '[福建晋江分拨中心]在分拨中心进行称重扫描', 'location': '福建晋江分拨中心'}, {'time': '2019-09-20 06:43:10', 'ftime': '2019-09-20 06:43:10', 'context': '[广东广州分拨中心]进行装车扫描，发往：福建晋江分拨中心', 'location': '广东广州分拨中心'}, {'time': '2019-09-19 22:43:41', 'ftime': '2019-09-19 22:43:41', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': '广东广州分拨中心'}, {'time': '2019-09-19 05:14:53', 'ftime': '2019-09-19 05:14:53', 'context': '[广东广州增城市新塘公司]进行下级地点扫描，发往：福建晋江分拨中心', 'location': '广东广州增城市新塘公司'}, {'time': '2019-09-19 00:07:35', 'ftime': '2019-09-19 00:07:35', 'context': '[广东广州增城市新塘公司]进行揽件扫描', 'location': '广东广州增城市新塘公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-23 10:07:12', 'context': '查无结果', 'ftime': '2019-09-23 10:07:12'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.070203</v>
+        <v>0.063322</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.012641</v>
+        <v>0.012564</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1362,11 +1362,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 08:22:17', 'ftime': '2019-09-29 08:22:17', 'context': '[湖南长沙县榔梨公司龙华小区便民服务站分部]进行派件扫描；派送业务员：潘敏；联系电话：17382067963', 'location': '湖南长沙县榔梨公司龙华小区便民服务站分部'}, {'time': '2019-09-29 02:04:43', 'ftime': '2019-09-29 02:04:43', 'context': '[湖南长沙县榔梨公司]进行快件扫描，发往：湖南长沙县榔梨公司龙华小区便民服务站分部', 'location': '湖南长沙县榔梨公司'}, {'time': '2019-09-28 17:10:47', 'ftime': '2019-09-28 17:10:47', 'context': '[湖南长沙县星沙镇公司]到达目的地网点，快件很快进行派送', 'location': '湖南长沙县星沙镇公司'}, {'time': '2019-09-28 14:16:06', 'ftime': '2019-09-28 14:16:06', 'context': '[湖南长沙分拨中心]从站点发出，本次转运目的地：湖南长沙县星沙镇公司', 'location': '湖南长沙分拨中心'}, {'time': '2019-09-28 14:09:54', 'ftime': '2019-09-28 14:09:54', 'context': '[湖南长沙分拨中心]在分拨中心进行卸车扫描', 'location': '湖南长沙分拨中心'}, {'time': '2019-09-27 21:16:46', 'ftime': '2019-09-27 21:16:46', 'context': '[贵州贵阳分拨中心]进行装车扫描，发往：湖南长沙分拨中心', 'location': '贵州贵阳分拨中心'}, {'time': '2019-09-27 21:11:50', 'ftime': '2019-09-27 21:11:50', 'context': '[贵州贵阳分拨中心]在分拨中心进行称重扫描', 'location': '贵州贵阳分拨中心'}, {'time': '2019-09-27 17:29:13', 'ftime': '2019-09-27 17:29:13', 'context': '[贵州仁怀市公司]进行揽件扫描', 'location': '贵州仁怀市公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'G40', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 18:43:59', 'ftime': '2019-09-28 18:43:59', 'context': '客户签收人: 退件签收 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：15534352347', 'location': ''}, {'time': '2019-09-28 15:11:49', 'ftime': '2019-09-28 15:11:49', 'context': '【山西省太原市南坪头公司】 派件中 派件人: 秦海飞 电话 15534352347 ', 'location': ''}, {'time': '2019-09-28 14:27:06', 'ftime': '2019-09-28 14:27:06', 'context': '【山西省太原市北营公司】 已收入', 'location': ''}, {'time': '2019-09-28 01:34:06', 'ftime': '2019-09-28 01:34:06', 'context': '【济南转运中心】 已发出 下一站 【太原转运中心】', 'location': ''}, {'time': '2019-09-27 17:22:41', 'ftime': '2019-09-27 17:22:41', 'context': '【山东省济南市长清】 已发出 下一站 【济南转运中心】', 'location': ''}, {'time': '2019-09-27 08:52:45', 'ftime': '2019-09-27 08:52:45', 'context': '【山东省济南市长清公司】 失败签收录入 褚廷军 （18521138257）', 'location': ''}, {'time': '2019-09-27 08:12:45', 'ftime': '2019-09-27 08:12:45', 'context': '【山东省济南市长清公司】 派件中 派件人: 褚廷军. 电话 18521138257 如有疑问，请联系：0531-87262538', 'location': ''}, {'time': '2019-09-27 06:24:59', 'ftime': '2019-09-27 06:24:59', 'context': '【山东省济南市长清公司】 已收入', 'location': ''}, {'time': '2019-09-26 13:16:19', 'ftime': '2019-09-26 13:16:19', 'context': '【济南转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 00:55:10', 'ftime': '2019-09-26 00:55:10', 'context': '【太原转运中心】 已发出 下一站 【济南转运中心】', 'location': ''}, {'time': '2019-09-25 23:05:04', 'ftime': '2019-09-25 23:05:04', 'context': '【太原转运中心公司】 已打包', 'location': ''}, {'time': '2019-09-25 22:51:25', 'ftime': '2019-09-25 22:51:25', 'context': '【太原转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-25 19:44:05', 'ftime': '2019-09-25 19:44:05', 'context': '【山西省太原市北营公司】 已收件 取件人: 成云兵 (15525419862)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.069786</v>
+        <v>0.07549</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.009505</v>
+        <v>0.010225</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1477,11 +1477,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-01 09:42:55', 'context': '查无结果', 'ftime': '2019-09-01 09:42:55'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 00:02:31', 'ftime': '2019-09-29 00:02:31', 'context': '辽宁盘锦转运中心-已装袋发往-吉林长春转运中心', 'location': ''}, {'time': '2019-09-29 00:02:31', 'ftime': '2019-09-29 00:02:31', 'context': '辽宁盘锦转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 23:46:05', 'ftime': '2019-09-28 23:46:05', 'context': '已到达-辽宁盘锦转运中心', 'location': ''}, {'time': '2019-09-27 21:14:04', 'ftime': '2019-09-27 21:14:04', 'context': '河北邯郸转运中心-已装袋发往-辽宁盘锦转运中心', 'location': ''}, {'time': '2019-09-27 21:14:04', 'ftime': '2019-09-27 21:14:04', 'context': '河北邯郸转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-27 20:55:37', 'ftime': '2019-09-27 20:55:37', 'context': '已到达-河北邯郸转运中心', 'location': ''}, {'time': '2019-09-27 18:46:06', 'ftime': '2019-09-27 18:46:06', 'context': '河北峰峰公司-已进行装车扫描', 'location': ''}, {'time': '2019-09-27 18:40:33', 'ftime': '2019-09-27 18:40:33', 'context': '河北峰峰公司-已发往-河北邯郸转运中心', 'location': ''}, {'time': '2019-09-27 18:40:33', 'ftime': '2019-09-27 18:40:33', 'context': '河北峰峰公司-已进行装袋扫描', 'location': ''}, {'time': '2019-09-27 18:15:58', 'ftime': '2019-09-27 18:15:58', 'context': '河北峰峰公司-收件员(18330023694,0310-5196809)-已收件', 'location': ''}, {'time': '2019-09-27 17:06:02', 'ftime': '2019-09-27 17:06:02', 'context': '河北峰峰公司-李平平(15231889982)-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.065375</v>
+        <v>0.071382</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.00773</v>
+        <v>0.016212</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (5).xlsx
+++ b/data_excel/接口测试用例_ (5).xlsx
@@ -582,11 +582,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-03 10:07:11', 'context': '查无结果', 'ftime': '2019-09-03 10:07:11'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 07:13:14', 'ftime': '2019-09-29 07:13:14', 'context': '【聊城市】 快件已经到达 【聊城茌平县】', 'location': ''}, {'time': '2019-09-28 14:21:04', 'ftime': '2019-09-28 14:21:04', 'context': '【济南市】 快件离开 【济南中转部】 已发往 【聊城茌平县】', 'location': ''}, {'time': '2019-09-28 14:16:08', 'ftime': '2019-09-28 14:16:08', 'context': '【济南市】 快件已经到达 【济南中转部】', 'location': ''}, {'time': '2019-09-26 15:30:14', 'ftime': '2019-09-26 15:30:14', 'context': '【金华市】 快件离开 【永康】 已发往 【济南中转部】', 'location': ''}, {'time': '2019-09-26 15:30:02', 'ftime': '2019-09-26 15:30:02', 'context': '【金华市】 【永康】（0579-89200000） 的 永康中通小件（15858956662） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.071409</v>
+        <v>0.081802</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -643,11 +643,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.009462999999999999</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -697,11 +697,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-10 10:28:17', 'ftime': '2018-11-10 10:28:17', 'context': '订单已由公司前台代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-10 08:04:58', 'ftime': '2018-11-10 08:04:58', 'context': '配送员开始配送，请您准备收货，配送员，杜飞亚，手机号，15726796809', 'location': None}, {'time': '2018-11-10 06:54:32', 'ftime': '2018-11-10 06:54:32', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-10 06:54:31', 'ftime': '2018-11-10 06:54:31', 'context': '货物已到达【城关站】', 'location': None}, {'time': '2018-11-09 15:24:57', 'ftime': '2018-11-09 15:24:57', 'context': '货物已完成分拣，离开【拉萨中转场】', 'location': None}, {'time': '2018-11-03 23:54:39', 'ftime': '2018-11-03 23:54:39', 'context': '货物已完成分拣，离开【成都青白江分拣中心】', 'location': None}, {'time': '2018-11-03 23:22:18', 'ftime': '2018-11-03 23:22:18', 'context': '货物已到达【成都青白江分拣中心】', 'location': None}, {'time': '2018-11-03 23:15:28', 'ftime': '2018-11-03 23:15:28', 'context': '货物已到达【成都青白江分拣中心】', 'location': None}, {'time': '2018-11-03 23:15:07', 'ftime': '2018-11-03 23:15:07', 'context': '货物已到达【成都青白江分拣中心】', 'location': None}, {'time': '2018-11-03 00:14:08', 'ftime': '2018-11-03 00:14:08', 'context': '货物已完成分拣，离开【郑州外单分拨中心】', 'location': None}, {'time': '2018-11-03 00:10:53', 'ftime': '2018-11-03 00:10:53', 'context': '货物已到达【郑州外单分拨中心】', 'location': None}, {'time': '2018-11-02 20:03:23', 'ftime': '2018-11-02 20:03:23', 'context': '货物已完成分拣，离开【驻马店分拨中心】', 'location': None}, {'time': '2018-11-02 20:02:17', 'ftime': '2018-11-02 20:02:17', 'context': '货物已到达【驻马店分拨中心】', 'location': None}, {'time': '2018-11-02 16:05:44', 'ftime': '2018-11-02 16:05:44', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-11-02 16:05:44', 'ftime': '2018-11-02 16:05:44', 'context': '配送员吴友战已经揽收完成', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-21 12:31:20', 'ftime': '2019-09-21 12:31:20', 'context': '【威海市】 快件已在 【威海】 签收, 签收人: 本人, 如有疑问请电联:15098141209 / 0631-5295811, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-09-21 07:34:35', 'ftime': '2019-09-21 07:34:35', 'context': '【威海市】 【威海】 的李刚-李维明（15098141209） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-21 06:13:57', 'ftime': '2019-09-21 06:13:57', 'context': '【威海市】 快件已经到达 【威海】', 'location': ''}, {'time': '2019-09-21 00:57:23', 'ftime': '2019-09-21 00:57:23', 'context': '【青岛市】 快件离开 【莱阳中转】 已发往 【威海】', 'location': ''}, {'time': '2019-09-20 23:38:13', 'ftime': '2019-09-20 23:38:13', 'context': '【青岛市】 快件已经到达 【莱阳中转】', 'location': ''}, {'time': '2019-09-20 09:54:46', 'ftime': '2019-09-20 09:54:46', 'context': '【济南市】 快件离开 【济南中转部】 已发往 【莱阳中转】', 'location': ''}, {'time': '2019-09-19 00:55:44', 'ftime': '2019-09-19 00:55:44', 'context': '【佛山市】 快件离开 【佛山中心】 已发往 【莱阳中转】', 'location': ''}, {'time': '2019-09-19 00:55:30', 'ftime': '2019-09-19 00:55:30', 'context': '【佛山市】 快件已经到达 【佛山中心】', 'location': ''}, {'time': '2019-09-18 20:14:25', 'ftime': '2019-09-18 20:14:25', 'context': '【佛山市】 快件离开 【佛山南海】 已发往 【佛山中心】', 'location': ''}, {'time': '2019-09-18 17:51:02', 'ftime': '2019-09-18 17:51:02', 'context': '【佛山市】 【佛山南海】（0757-88797178、0757-85618359） 的 邹生（13016610056） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.071863</v>
+        <v>0.073535</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -751,11 +751,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.009631000000000001</v>
+        <v>0.009450999999999999</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -805,11 +805,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 08:56:18', 'ftime': '2019-09-29 08:56:18', 'context': '广东龙岗荷坳营业点-龙关云(18126234263,0755-36909222)-派件中', 'location': ''}, {'time': '2019-09-29 08:00:23', 'ftime': '2019-09-29 08:00:23', 'context': '已到达-广东龙岗荷坳营业点', 'location': ''}, {'time': '2019-09-28 20:38:40', 'ftime': '2019-09-28 20:38:40', 'context': '深圳龙岗集散中心-已发往-广东龙岗荷坳营业点', 'location': ''}, {'time': '2019-09-28 20:38:16', 'ftime': '2019-09-28 20:38:16', 'context': '已到达-深圳龙岗集散中心', 'location': ''}, {'time': '2019-09-28 20:38:16', 'ftime': '2019-09-28 20:38:16', 'context': '快件已在【深圳龙岗集散中心】进行卸车，扫描员【进港到件1】', 'location': ''}, {'time': '2019-09-28 14:42:45', 'ftime': '2019-09-28 14:42:45', 'context': '广东深圳转运中心-已发往-深圳龙岗集散中心', 'location': ''}, {'time': '2019-09-28 14:42:45', 'ftime': '2019-09-28 14:42:45', 'context': '广东深圳转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 14:41:02', 'ftime': '2019-09-28 14:41:02', 'context': '已到达-广东深圳转运中心', 'location': ''}, {'time': '2019-09-28 14:41:02', 'ftime': '2019-09-28 14:41:02', 'context': '快件已在【广东深圳转运中心】进行卸车，扫描员【张少坤】', 'location': ''}, {'time': '2019-09-27 20:46:01', 'ftime': '2019-09-27 20:46:01', 'context': '浙江永康公司-已发往-广东深圳转运中心', 'location': ''}, {'time': '2019-09-27 20:46:01', 'ftime': '2019-09-27 20:46:01', 'context': '浙江永康公司-已进行装车扫描', 'location': ''}, {'time': '2019-09-27 20:45:21', 'ftime': '2019-09-27 20:45:21', 'context': '浙江武义公司-武义公司321200(0579-87633890)-已收件', 'location': ''}, {'time': '2019-09-27 18:14:06', 'ftime': '2019-09-27 18:14:06', 'context': '浙江武义公司-武义公司(15215886366)-已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-25 10:22:15', 'context': '查无结果', 'ftime': '2019-09-25 10:22:15'}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.069274</v>
+        <v>0.066658</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -857,11 +857,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.008604000000000001</v>
+        <v>0.009698</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -911,11 +911,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 09:06:43', 'ftime': '2019-09-29 09:06:43', 'context': '[河北武安市公司]进行派件扫描；派送业务员：二庄代转件；联系电话：15383808656', 'location': '河北武安市公司'}, {'time': '2019-09-29 06:44:18', 'ftime': '2019-09-29 06:44:18', 'context': '[河北武安市公司]到达目的地网点，快件很快进行派送', 'location': '河北武安市公司'}, {'time': '2019-09-28 18:39:57', 'ftime': '2019-09-28 18:39:57', 'context': '[河北石家庄分拨中心]从站点发出，本次转运目的地：河北武安市公司', 'location': '河北石家庄分拨中心'}, {'time': '2019-09-28 18:35:10', 'ftime': '2019-09-28 18:35:10', 'context': '[河北石家庄分拨中心]在分拨中心进行卸车扫描', 'location': '河北石家庄分拨中心'}, {'time': '2019-09-28 01:14:31', 'ftime': '2019-09-28 01:14:31', 'context': '[陕西西安分拨中心]进行装车扫描，发往：河北石家庄分拨中心', 'location': '陕西西安分拨中心'}, {'time': '2019-09-28 01:12:20', 'ftime': '2019-09-28 01:12:20', 'context': '[陕西西安分拨中心]在分拨中心进行称重扫描', 'location': '陕西西安分拨中心'}, {'time': '2019-09-27 11:24:27', 'ftime': '2019-09-27 11:24:27', 'context': '[甘肃庄浪县公司]进行揽件扫描', 'location': '甘肃庄浪县公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 05:12:00', 'ftime': '2019-09-29 05:12:00', 'context': '离开【长春中心】,下一站【长春中心】（经转）', 'location': ''}, {'time': '2019-09-28 22:52:31', 'ftime': '2019-09-28 22:52:31', 'context': '到达【长春中心】（经转）', 'location': ''}, {'time': '2019-09-27 09:37:19', 'ftime': '2019-09-27 09:37:19', 'context': '离开【南京枢纽】,下一站【长春中心】（经转）', 'location': ''}, {'time': '2019-09-26 04:53:38', 'ftime': '2019-09-26 04:53:38', 'context': '到达【南京枢纽】（经转）', 'location': ''}, {'time': '2019-09-25 23:29:05', 'ftime': '2019-09-25 23:29:05', 'context': '离开【镇江邮区】,下一站【南京枢纽】', 'location': ''}, {'time': '2019-09-25 18:05:06', 'ftime': '2019-09-25 18:05:06', 'context': '到达【邮政丹阳市邮件科】', 'location': ''}, {'time': '2019-09-25 17:46:24', 'ftime': '2019-09-25 17:46:24', 'context': '离开【丹阳市寄递事业部大宗邮件收寄中心】,下一站【丹邮件科】', 'location': ''}, {'time': '2019-09-25 16:56:39', 'ftime': '2019-09-25 16:56:39', 'context': '【镇江丹阳市邮政局函件局】已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.072507</v>
+        <v>0.06913999999999999</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -963,11 +963,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.009738</v>
+        <v>0.014104</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1017,11 +1017,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-05 10:07:12', 'context': '查无结果', 'ftime': '2019-09-05 10:07:12'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-16 10:22:15', 'context': '查无结果', 'ftime': '2019-09-16 10:22:15'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.070267</v>
+        <v>0.066858</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1069,11 +1069,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.008510999999999999</v>
+        <v>0.011472</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1132,11 +1132,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 07:39:35', 'ftime': '2019-09-29 07:39:35', 'context': '[内蒙古呼和浩特如意开发区公司]进行派件扫描；派送业务员：白利兵；联系电话：18100475489', 'location': '内蒙古呼和浩特如意开发区公司'}, {'time': '2019-09-27 13:01:27', 'ftime': '2019-09-27 13:01:27', 'context': '[内蒙古呼和浩特如意开发区公司]到达目的地网点，快件很快进行派送', 'location': '内蒙古呼和浩特如意开发区公司'}, {'time': '2019-09-27 10:44:57', 'ftime': '2019-09-27 10:44:57', 'context': '[内蒙古呼和浩特分拨中心]从站点发出，本次转运目的地：内蒙古呼和浩特如意开发区公司', 'location': '内蒙古呼和浩特分拨中心'}, {'time': '2019-09-27 09:23:30', 'ftime': '2019-09-27 09:23:30', 'context': '[内蒙古呼和浩特分拨中心]在分拨中心进行卸车扫描', 'location': '内蒙古呼和浩特分拨中心'}, {'time': '2019-09-26 04:24:58', 'ftime': '2019-09-26 04:24:58', 'context': '[江苏苏州分拨中心]进行装车扫描，发往：内蒙古呼和浩特分拨中心', 'location': '江苏苏州分拨中心'}, {'time': '2019-09-26 04:23:26', 'ftime': '2019-09-26 04:23:26', 'context': '[江苏苏州分拨中心]在分拨中心进行卸车扫描', 'location': '江苏苏州分拨中心'}, {'time': '2019-09-26 02:10:05', 'ftime': '2019-09-26 02:10:05', 'context': '[上海分拨中心]进行装车扫描，发往：江苏苏州分拨中心', 'location': '上海分拨中心'}, {'time': '2019-09-26 00:35:42', 'ftime': '2019-09-26 00:35:42', 'context': '[上海分拨中心]进行中转集包扫描，发往：呼市市内包', 'location': '上海分拨中心'}, {'time': '2019-09-25 23:34:23', 'ftime': '2019-09-25 23:34:23', 'context': '[上海分拨中心]在分拨中心进行称重扫描', 'location': '上海分拨中心'}, {'time': '2019-09-25 16:47:45', 'ftime': '2019-09-25 16:47:45', 'context': '[上海长宁区西部公司市场部项目部]进行揽件扫描', 'location': '上海长宁区西部公司市场部项目部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-29 10:22:15', 'context': '查无结果', 'ftime': '2019-09-29 10:22:15'}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.073337</v>
+        <v>0.063129</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1193,11 +1193,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.010515</v>
+        <v>0.009067</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1256,11 +1256,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-23 10:07:12', 'context': '查无结果', 'ftime': '2019-09-23 10:07:12'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 18:24:59', 'ftime': '2019-09-28 18:24:59', 'context': '[焦作市]焦作市【孟州】，西虢百世快递签收有事电联15993711109 已签收', 'location': '焦作市'}, {'time': '2019-09-28 08:42:29', 'ftime': '2019-09-28 08:42:29', 'context': '[焦作市]焦作市【孟州】，【西虢宋佳婷/15993711109】正在派件', 'location': '焦作市'}, {'time': '2019-09-28 08:06:11', 'ftime': '2019-09-28 08:06:11', 'context': '[焦作市]到焦作市【孟州】', 'location': '焦作市'}, {'time': '2019-09-27 22:27:30', 'ftime': '2019-09-27 22:27:30', 'context': '[郑州市]郑州市【郑州转运中心】，正发往【孟州】', 'location': '郑州市'}, {'time': '2019-09-27 19:10:48', 'ftime': '2019-09-27 19:10:48', 'context': '[郑州市]到郑州市【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-09-26 21:14:45', 'ftime': '2019-09-26 21:14:45', 'context': '[金华市]金华市【义乌转运中心】，正发往【郑州转运中心】', 'location': '金华市'}, {'time': '2019-09-26 21:13:34', 'ftime': '2019-09-26 21:13:34', 'context': '[金华市]到金华市【义乌转运中心】', 'location': '金华市'}, {'time': '2019-09-26 19:12:03', 'ftime': '2019-09-26 19:12:03', 'context': '[金华市]到金华市【金华义乌上溪大件集货点】', 'location': '金华市'}, {'time': '2019-09-26 18:49:10', 'ftime': '2019-09-26 18:49:10', 'context': '[金华市]金华市【东阳江南五分部-优质客户】，【叶建国/15356958520】已揽收', 'location': '金华市'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.063322</v>
+        <v>0.073</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1308,11 +1308,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.012564</v>
+        <v>0.010465</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1362,11 +1362,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'G40', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 18:43:59', 'ftime': '2019-09-28 18:43:59', 'context': '客户签收人: 退件签收 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：15534352347', 'location': ''}, {'time': '2019-09-28 15:11:49', 'ftime': '2019-09-28 15:11:49', 'context': '【山西省太原市南坪头公司】 派件中 派件人: 秦海飞 电话 15534352347 ', 'location': ''}, {'time': '2019-09-28 14:27:06', 'ftime': '2019-09-28 14:27:06', 'context': '【山西省太原市北营公司】 已收入', 'location': ''}, {'time': '2019-09-28 01:34:06', 'ftime': '2019-09-28 01:34:06', 'context': '【济南转运中心】 已发出 下一站 【太原转运中心】', 'location': ''}, {'time': '2019-09-27 17:22:41', 'ftime': '2019-09-27 17:22:41', 'context': '【山东省济南市长清】 已发出 下一站 【济南转运中心】', 'location': ''}, {'time': '2019-09-27 08:52:45', 'ftime': '2019-09-27 08:52:45', 'context': '【山东省济南市长清公司】 失败签收录入 褚廷军 （18521138257）', 'location': ''}, {'time': '2019-09-27 08:12:45', 'ftime': '2019-09-27 08:12:45', 'context': '【山东省济南市长清公司】 派件中 派件人: 褚廷军. 电话 18521138257 如有疑问，请联系：0531-87262538', 'location': ''}, {'time': '2019-09-27 06:24:59', 'ftime': '2019-09-27 06:24:59', 'context': '【山东省济南市长清公司】 已收入', 'location': ''}, {'time': '2019-09-26 13:16:19', 'ftime': '2019-09-26 13:16:19', 'context': '【济南转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-26 00:55:10', 'ftime': '2019-09-26 00:55:10', 'context': '【太原转运中心】 已发出 下一站 【济南转运中心】', 'location': ''}, {'time': '2019-09-25 23:05:04', 'ftime': '2019-09-25 23:05:04', 'context': '【太原转运中心公司】 已打包', 'location': ''}, {'time': '2019-09-25 22:51:25', 'ftime': '2019-09-25 22:51:25', 'context': '【太原转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-25 19:44:05', 'ftime': '2019-09-25 19:44:05', 'context': '【山西省太原市北营公司】 已收件 取件人: 成云兵 (15525419862)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 21:36:29', 'ftime': '2019-09-28 21:36:29', 'context': '【哈尔滨市】 快件离开 【哈尔滨中转】 已发往 【盘锦中转】', 'location': ''}, {'time': '2019-09-28 21:33:50', 'ftime': '2019-09-28 21:33:50', 'context': '【哈尔滨市】 快件已经到达 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-28 18:16:53', 'ftime': '2019-09-28 18:16:53', 'context': '【哈尔滨市】 快件离开 【哈尔滨江北科技创新城】 已发往 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-28 18:16:51', 'ftime': '2019-09-28 18:16:51', 'context': '【哈尔滨市】 【哈尔滨江北科技创新城】（15045851801、0451-81324508） 的 郝长江万达茂（18145177812） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.07549</v>
+        <v>0.073391</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1414,11 +1414,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.010225</v>
+        <v>0.010043</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1477,11 +1477,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 00:02:31', 'ftime': '2019-09-29 00:02:31', 'context': '辽宁盘锦转运中心-已装袋发往-吉林长春转运中心', 'location': ''}, {'time': '2019-09-29 00:02:31', 'ftime': '2019-09-29 00:02:31', 'context': '辽宁盘锦转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 23:46:05', 'ftime': '2019-09-28 23:46:05', 'context': '已到达-辽宁盘锦转运中心', 'location': ''}, {'time': '2019-09-27 21:14:04', 'ftime': '2019-09-27 21:14:04', 'context': '河北邯郸转运中心-已装袋发往-辽宁盘锦转运中心', 'location': ''}, {'time': '2019-09-27 21:14:04', 'ftime': '2019-09-27 21:14:04', 'context': '河北邯郸转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-27 20:55:37', 'ftime': '2019-09-27 20:55:37', 'context': '已到达-河北邯郸转运中心', 'location': ''}, {'time': '2019-09-27 18:46:06', 'ftime': '2019-09-27 18:46:06', 'context': '河北峰峰公司-已进行装车扫描', 'location': ''}, {'time': '2019-09-27 18:40:33', 'ftime': '2019-09-27 18:40:33', 'context': '河北峰峰公司-已发往-河北邯郸转运中心', 'location': ''}, {'time': '2019-09-27 18:40:33', 'ftime': '2019-09-27 18:40:33', 'context': '河北峰峰公司-已进行装袋扫描', 'location': ''}, {'time': '2019-09-27 18:15:58', 'ftime': '2019-09-27 18:15:58', 'context': '河北峰峰公司-收件员(18330023694,0310-5196809)-已收件', 'location': ''}, {'time': '2019-09-27 17:06:02', 'ftime': '2019-09-27 17:06:02', 'context': '河北峰峰公司-李平平(15231889982)-已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-25 10:22:15', 'context': '查无结果', 'ftime': '2019-09-25 10:22:15'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.071382</v>
+        <v>0.067131</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1538,11 +1538,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.016212</v>
+        <v>0.010336</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (5).xlsx
+++ b/data_excel/接口测试用例_ (5).xlsx
@@ -582,11 +582,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 07:13:14', 'ftime': '2019-09-29 07:13:14', 'context': '【聊城市】 快件已经到达 【聊城茌平县】', 'location': ''}, {'time': '2019-09-28 14:21:04', 'ftime': '2019-09-28 14:21:04', 'context': '【济南市】 快件离开 【济南中转部】 已发往 【聊城茌平县】', 'location': ''}, {'time': '2019-09-28 14:16:08', 'ftime': '2019-09-28 14:16:08', 'context': '【济南市】 快件已经到达 【济南中转部】', 'location': ''}, {'time': '2019-09-26 15:30:14', 'ftime': '2019-09-26 15:30:14', 'context': '【金华市】 快件离开 【永康】 已发往 【济南中转部】', 'location': ''}, {'time': '2019-09-26 15:30:02', 'ftime': '2019-09-26 15:30:02', 'context': '【金华市】 【永康】（0579-89200000） 的 永康中通小件（15858956662） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 21:52:56', 'ftime': '2019-09-28 21:52:56', 'context': '[福建福州分拨中心]进行装车扫描，发往：浙江杭州分拨中心', 'location': '福建福州分拨中心'}, {'time': '2019-09-28 21:49:32', 'ftime': '2019-09-28 21:49:32', 'context': '[福建福州分拨中心]在分拨中心进行称重扫描', 'location': '福建福州分拨中心'}, {'time': '2019-09-28 17:52:33', 'ftime': '2019-09-28 17:52:33', 'context': '[福建霞浦县公司]进行揽件扫描', 'location': '福建霞浦县公司'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.081802</v>
+        <v>0.073975</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.009599999999999999</v>
+        <v>0.009381</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -697,11 +697,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-21 12:31:20', 'ftime': '2019-09-21 12:31:20', 'context': '【威海市】 快件已在 【威海】 签收, 签收人: 本人, 如有疑问请电联:15098141209 / 0631-5295811, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-09-21 07:34:35', 'ftime': '2019-09-21 07:34:35', 'context': '【威海市】 【威海】 的李刚-李维明（15098141209） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-21 06:13:57', 'ftime': '2019-09-21 06:13:57', 'context': '【威海市】 快件已经到达 【威海】', 'location': ''}, {'time': '2019-09-21 00:57:23', 'ftime': '2019-09-21 00:57:23', 'context': '【青岛市】 快件离开 【莱阳中转】 已发往 【威海】', 'location': ''}, {'time': '2019-09-20 23:38:13', 'ftime': '2019-09-20 23:38:13', 'context': '【青岛市】 快件已经到达 【莱阳中转】', 'location': ''}, {'time': '2019-09-20 09:54:46', 'ftime': '2019-09-20 09:54:46', 'context': '【济南市】 快件离开 【济南中转部】 已发往 【莱阳中转】', 'location': ''}, {'time': '2019-09-19 00:55:44', 'ftime': '2019-09-19 00:55:44', 'context': '【佛山市】 快件离开 【佛山中心】 已发往 【莱阳中转】', 'location': ''}, {'time': '2019-09-19 00:55:30', 'ftime': '2019-09-19 00:55:30', 'context': '【佛山市】 快件已经到达 【佛山中心】', 'location': ''}, {'time': '2019-09-18 20:14:25', 'ftime': '2019-09-18 20:14:25', 'context': '【佛山市】 快件离开 【佛山南海】 已发往 【佛山中心】', 'location': ''}, {'time': '2019-09-18 17:51:02', 'ftime': '2019-09-18 17:51:02', 'context': '【佛山市】 【佛山南海】（0757-88797178、0757-85618359） 的 邹生（13016610056） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 10:44:20', 'ftime': '2019-09-28 10:44:20', 'context': '【天津市】 快件已在 【天津河北分部】 签收, 签收人: 拍照签收, 如有疑问请电联:18722603175 / 022-85539762, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-09-28 07:58:07', 'ftime': '2019-09-28 07:58:07', 'context': '【天津市】 【天津河北分部】 的王正兵（18722603175） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-28 06:20:55', 'ftime': '2019-09-28 06:20:55', 'context': '【天津市】 快件已经到达 【天津河北分部】', 'location': ''}, {'time': '2019-09-27 16:40:38', 'ftime': '2019-09-27 16:40:38', 'context': '【天津市】 快件离开 【天津中转部】 已发往 【天津河北分部】', 'location': ''}, {'time': '2019-09-27 16:33:59', 'ftime': '2019-09-27 16:33:59', 'context': '【天津市】 快件已经到达 【天津中转部】', 'location': ''}, {'time': '2019-09-27 01:27:42', 'ftime': '2019-09-27 01:27:42', 'context': '【淮安市】 快件离开 【淮安中转】 已发往 【天津中转部】', 'location': ''}, {'time': '2019-09-26 21:11:17', 'ftime': '2019-09-26 21:11:17', 'context': '【淮安市】 快件已经到达 【淮安中转】', 'location': ''}, {'time': '2019-09-24 14:08:40', 'ftime': '2019-09-24 14:08:40', 'context': '【徐州市】 快件已经到达 【睢宁】', 'location': ''}, {'time': '2019-09-23 09:25:42', 'ftime': '2019-09-23 09:25:42', 'context': '【徐州市】 【睢宁刘圩】（18262477878） 的 王浩（18251642676） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.073535</v>
+        <v>0.068839</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.009450999999999999</v>
+        <v>0.009514</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -805,11 +805,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-25 10:22:15', 'context': '查无结果', 'ftime': '2019-09-25 10:22:15'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:46:08', 'ftime': '2019-09-29 09:46:08', 'context': '货物已到达【成都青白江分拣中心】', 'location': ''}, {'time': '2019-09-29 09:26:18', 'ftime': '2019-09-29 09:26:18', 'context': '货物已到达【成都青白江分拣中心】', 'location': ''}, {'time': '2019-09-27 21:08:32', 'ftime': '2019-09-27 21:08:32', 'context': '货物已完成分拣，离开【金华分拨中心】', 'location': ''}, {'time': '2019-09-27 19:51:18', 'ftime': '2019-09-27 19:51:18', 'context': '货物已到达【金华分拨中心】', 'location': ''}, {'time': '2019-09-27 17:38:26', 'ftime': '2019-09-27 17:38:26', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-27 17:38:26', 'ftime': '2019-09-27 17:38:26', 'context': '配送员杨超已经揽收完成', 'location': ''}, {'time': '2019-09-27 17:34:38', 'ftime': '2019-09-27 17:34:38', 'context': '配送员马玉安操作再取，再取原因为：托寄物未准备好,下次预计揽收时间为09月28日22:00-23:00', 'location': ''}, {'time': '2019-09-26 16:22:27', 'ftime': '2019-09-26 16:22:27', 'context': '揽收任务已分配给杨超,配送员电话18079307045或0579-85999089', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.066658</v>
+        <v>0.06986299999999999</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.009698</v>
+        <v>0.015122</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -911,11 +911,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 05:12:00', 'ftime': '2019-09-29 05:12:00', 'context': '离开【长春中心】,下一站【长春中心】（经转）', 'location': ''}, {'time': '2019-09-28 22:52:31', 'ftime': '2019-09-28 22:52:31', 'context': '到达【长春中心】（经转）', 'location': ''}, {'time': '2019-09-27 09:37:19', 'ftime': '2019-09-27 09:37:19', 'context': '离开【南京枢纽】,下一站【长春中心】（经转）', 'location': ''}, {'time': '2019-09-26 04:53:38', 'ftime': '2019-09-26 04:53:38', 'context': '到达【南京枢纽】（经转）', 'location': ''}, {'time': '2019-09-25 23:29:05', 'ftime': '2019-09-25 23:29:05', 'context': '离开【镇江邮区】,下一站【南京枢纽】', 'location': ''}, {'time': '2019-09-25 18:05:06', 'ftime': '2019-09-25 18:05:06', 'context': '到达【邮政丹阳市邮件科】', 'location': ''}, {'time': '2019-09-25 17:46:24', 'ftime': '2019-09-25 17:46:24', 'context': '离开【丹阳市寄递事业部大宗邮件收寄中心】,下一站【丹邮件科】', 'location': ''}, {'time': '2019-09-25 16:56:39', 'ftime': '2019-09-25 16:56:39', 'context': '【镇江丹阳市邮政局函件局】已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-04 11:52:00', 'ftime': '2018-11-04 11:52:00', 'context': '[嘉兴市]嘉兴市【桐乡市梧桐二部】，富友收件宝 已签收', 'location': None}, {'time': '2018-11-04 10:40:36', 'ftime': '2018-11-04 10:40:36', 'context': '[嘉兴市]嘉兴市【桐乡市梧桐二部】，【龙秀杰/18268395271】正在派件', 'location': None}, {'time': '2018-11-04 09:27:48', 'ftime': '2018-11-04 09:27:48', 'context': '[嘉兴市]到嘉兴市【桐乡市梧桐二部】', 'location': None}, {'time': '2018-11-04 02:33:56', 'ftime': '2018-11-04 02:33:56', 'context': '[嘉兴市]嘉兴市【嘉兴转运中心】，正发往【桐乡市梧桐二部】', 'location': None}, {'time': '2018-11-04 02:18:41', 'ftime': '2018-11-04 02:18:41', 'context': '[嘉兴市]到嘉兴市【嘉兴转运中心】', 'location': None}, {'time': '2018-11-03 23:12:19', 'ftime': '2018-11-03 23:12:19', 'context': '[杭州市]杭州市【杭州转运中心】，正发往【嘉兴转运中心】', 'location': None}, {'time': '2018-11-03 22:18:08', 'ftime': '2018-11-03 22:18:08', 'context': '[杭州市]到杭州市【杭州转运中心】', 'location': None}, {'time': '2018-11-02 22:48:58', 'ftime': '2018-11-02 22:48:58', 'context': '[太原市]太原市【太原转运中心】，正发往【杭州转运中心】', 'location': None}, {'time': '2018-11-02 21:09:20', 'ftime': '2018-11-02 21:09:20', 'context': '[太原市]到太原市【太原转运中心】', 'location': None}, {'time': '2018-11-02 15:07:47', 'ftime': '2018-11-02 15:07:47', 'context': '[长治市]长治市【沁县】，正发往【太原转运中心】', 'location': None}, {'time': '2018-11-02 14:05:11', 'ftime': '2018-11-02 14:05:11', 'context': '[长治市]长治市【沁县】，【陈四明/18103450001】已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.06913999999999999</v>
+        <v>0.06804300000000001</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.014104</v>
+        <v>0.047035</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1017,11 +1017,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-16 10:22:15', 'context': '查无结果', 'ftime': '2019-09-16 10:22:15'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-01 10:28:25', 'context': '查无结果', 'ftime': '2019-09-01 10:28:25'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.066858</v>
+        <v>0.068629</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.011472</v>
+        <v>0.009335</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1132,11 +1132,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-29 10:22:15', 'context': '查无结果', 'ftime': '2019-09-29 10:22:15'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-14 11:45:40', 'ftime': '2018-11-14 11:45:40', 'context': '订单已由门卫代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-14 09:52:02', 'ftime': '2018-11-14 09:52:02', 'context': '配送员开始配送，请您准备收货，配送员，杨衍，手机号，13327797838', 'location': None}, {'time': '2018-11-14 09:37:58', 'ftime': '2018-11-14 09:37:58', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-14 09:37:57', 'ftime': '2018-11-14 09:37:57', 'context': '货物已到达【泰州高港站】', 'location': None}, {'time': '2018-11-14 04:24:58', 'ftime': '2018-11-14 04:24:58', 'context': '货物已完成分拣，离开【泰州中转场】', 'location': None}, {'time': '2018-11-13 20:47:02', 'ftime': '2018-11-13 20:47:02', 'context': '货物已到达【泰州中转场】', 'location': None}, {'time': '2018-11-13 11:59:48', 'ftime': '2018-11-13 11:59:48', 'context': '货物已完成分拣，离开【昆山宇培分拣中心】', 'location': None}, {'time': '2018-11-11 23:47:10', 'ftime': '2018-11-11 23:47:10', 'context': '货物已完成分拣，离开【成都青白江分拣中心】', 'location': None}, {'time': '2018-11-11 23:15:19', 'ftime': '2018-11-11 23:15:19', 'context': '货物已到达【成都青白江分拣中心】', 'location': None}, {'time': '2018-11-11 23:06:51', 'ftime': '2018-11-11 23:06:51', 'context': '货物已到达【成都青白江分拣中心】', 'location': None}, {'time': '2018-11-11 20:16:15', 'ftime': '2018-11-11 20:16:15', 'context': '您的货物由于客户取消寄件原因我司配送员未揽收成功 ，如有寄件需求请您重新下单，感谢您选择京东物流;', 'location': None}, {'time': '2018-11-11 19:19:41', 'ftime': '2018-11-11 19:19:41', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-11-11 19:19:41', 'ftime': '2018-11-11 19:19:41', 'context': '配送员蒋龙凤已经揽收完成', 'location': None}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.063129</v>
+        <v>0.07169200000000001</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.009067</v>
+        <v>0.011021</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1256,11 +1256,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 18:24:59', 'ftime': '2019-09-28 18:24:59', 'context': '[焦作市]焦作市【孟州】，西虢百世快递签收有事电联15993711109 已签收', 'location': '焦作市'}, {'time': '2019-09-28 08:42:29', 'ftime': '2019-09-28 08:42:29', 'context': '[焦作市]焦作市【孟州】，【西虢宋佳婷/15993711109】正在派件', 'location': '焦作市'}, {'time': '2019-09-28 08:06:11', 'ftime': '2019-09-28 08:06:11', 'context': '[焦作市]到焦作市【孟州】', 'location': '焦作市'}, {'time': '2019-09-27 22:27:30', 'ftime': '2019-09-27 22:27:30', 'context': '[郑州市]郑州市【郑州转运中心】，正发往【孟州】', 'location': '郑州市'}, {'time': '2019-09-27 19:10:48', 'ftime': '2019-09-27 19:10:48', 'context': '[郑州市]到郑州市【郑州转运中心】', 'location': '郑州市'}, {'time': '2019-09-26 21:14:45', 'ftime': '2019-09-26 21:14:45', 'context': '[金华市]金华市【义乌转运中心】，正发往【郑州转运中心】', 'location': '金华市'}, {'time': '2019-09-26 21:13:34', 'ftime': '2019-09-26 21:13:34', 'context': '[金华市]到金华市【义乌转运中心】', 'location': '金华市'}, {'time': '2019-09-26 19:12:03', 'ftime': '2019-09-26 19:12:03', 'context': '[金华市]到金华市【金华义乌上溪大件集货点】', 'location': '金华市'}, {'time': '2019-09-26 18:49:10', 'ftime': '2019-09-26 18:49:10', 'context': '[金华市]金华市【东阳江南五分部-优质客户】，【叶建国/15356958520】已揽收', 'location': '金华市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-20 17:45:45', 'ftime': '2019-09-20 17:45:45', 'context': '[广东珠海公司拱北桂花分部]快件已被 宏翔地产 代签收如有问题请联系何鹏新【18675612510】。', 'location': None}, {'time': '2019-09-20 15:59:59', 'ftime': '2019-09-20 15:59:59', 'context': '[广东珠海公司拱北桂花分部]进行派件扫描；派送业务员：何鹏新；联系电话：18675612510', 'location': None}, {'time': '2019-09-20 14:55:20', 'ftime': '2019-09-20 14:55:20', 'context': '[广东珠海公司拱北桂花分部]到达目的地网点，快件很快进行派送', 'location': None}, {'time': '2019-09-20 12:45:45', 'ftime': '2019-09-20 12:45:45', 'context': '[广东珠海公司]进行快件扫描，发往：广东珠海公司拱北桂花分部', 'location': None}, {'time': '2019-09-20 08:22:31', 'ftime': '2019-09-20 08:22:31', 'context': '[广东中山分拨中心]从站点发出，本次转运目的地：广东珠海公司', 'location': None}, {'time': '2019-09-20 08:11:46', 'ftime': '2019-09-20 08:11:46', 'context': '[广东中山分拨中心]在分拨中心进行卸车扫描', 'location': None}, {'time': '2019-09-20 02:53:32', 'ftime': '2019-09-20 02:53:32', 'context': '[广东广州分拨中心]进行装车扫描，发往：广东中山分拨中心', 'location': None}, {'time': '2019-09-20 02:48:43', 'ftime': '2019-09-20 02:48:43', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-09-19 23:04:46', 'ftime': '2019-09-19 23:04:46', 'context': '[广东广州白云区同德公司]进行下级地点扫描，发往：广东珠海公司', 'location': None}, {'time': '2019-09-19 22:29:49', 'ftime': '2019-09-19 22:29:49', 'context': '[广东广州白云区同德公司]进行揽件扫描', 'location': None}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.073</v>
+        <v>0.073423</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.010465</v>
+        <v>0.010637</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1362,11 +1362,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 21:36:29', 'ftime': '2019-09-28 21:36:29', 'context': '【哈尔滨市】 快件离开 【哈尔滨中转】 已发往 【盘锦中转】', 'location': ''}, {'time': '2019-09-28 21:33:50', 'ftime': '2019-09-28 21:33:50', 'context': '【哈尔滨市】 快件已经到达 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-28 18:16:53', 'ftime': '2019-09-28 18:16:53', 'context': '【哈尔滨市】 快件离开 【哈尔滨江北科技创新城】 已发往 【哈尔滨中转】', 'location': ''}, {'time': '2019-09-28 18:16:51', 'ftime': '2019-09-28 18:16:51', 'context': '【哈尔滨市】 【哈尔滨江北科技创新城】（15045851801、0451-81324508） 的 郝长江万达茂（18145177812） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-27 17:32:47', 'ftime': '2019-09-27 17:32:47', 'context': '[宁夏石嘴山大武口区公司]快件已被 锦城电商便利店（快递柜代收） 代签收如有问题请联系黄青青【18095280508】。', 'location': '宁夏石嘴山大武口区公司'}, {'time': '2019-09-27 15:34:06', 'ftime': '2019-09-27 15:34:06', 'context': '[宁夏石嘴山大武口区公司]进行派件扫描；派送业务员：黄青青；联系电话：18095280508', 'location': '宁夏石嘴山大武口区公司'}, {'time': '2019-09-27 11:24:15', 'ftime': '2019-09-27 11:24:15', 'context': '[宁夏银川分拨中心]从站点发出，本次转运目的地：宁夏石嘴山大武口区公司', 'location': '宁夏银川分拨中心'}, {'time': '2019-09-26 12:48:58', 'ftime': '2019-09-26 12:48:58', 'context': '[陕西西安分拨中心]进行装车扫描，发往：宁夏银川分拨中心', 'location': '陕西西安分拨中心'}, {'time': '2019-09-26 12:46:04', 'ftime': '2019-09-26 12:46:04', 'context': '[陕西西安分拨中心]在分拨中心进行卸车扫描', 'location': '陕西西安分拨中心'}, {'time': '2019-09-24 22:23:26', 'ftime': '2019-09-24 22:23:26', 'context': '[广东东莞分拨中心]进行装车扫描，发往：陕西西安分拨中心', 'location': '广东东莞分拨中心'}, {'time': '2019-09-24 22:15:13', 'ftime': '2019-09-24 22:15:13', 'context': '[广东东莞分拨中心]在分拨中心进行称重扫描', 'location': '广东东莞分拨中心'}, {'time': '2019-09-24 16:59:51', 'ftime': '2019-09-24 16:59:51', 'context': '到达：【深圳口岸】包裹清关完成', 'location': ''}, {'time': '2019-09-24 11:16:06', 'ftime': '2019-09-24 11:16:06', 'context': '到达：【深圳口岸】包裹清关中', 'location': ''}, {'time': '2019-09-24 09:09:52', 'ftime': '2019-09-24 09:09:52', 'context': '到达：【中国-深圳】国际干线运输已到达【海关监管仓】', 'location': ''}, {'time': '2019-09-24 02:28:37', 'ftime': '2019-09-24 02:28:37', 'context': '到达：【香港-新界】，国际干线运输已从【新界海外仓】启程，航（班）次号：', 'location': ''}, {'time': '2019-09-23 23:55:29', 'ftime': '2019-09-23 23:55:29', 'context': '【香港-新界】包裹已从【新界海外仓】出库，等待干线运输', 'location': ''}, {'time': '2019-09-23 22:53:52', 'ftime': '2019-09-23 22:53:52', 'context': '【香港-新界】包裹已到达【新界海外仓】', 'location': ''}, {'time': '2019-09-23 21:18:59', 'ftime': '2019-09-23 21:18:59', 'context': '[香港韵达公司新界北区服务部]进行揽件扫描', 'location': '香港韵达公司新界北区服务部'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.073391</v>
+        <v>0.074252</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.010043</v>
+        <v>0.010062</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1477,11 +1477,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-25 10:22:15', 'context': '查无结果', 'ftime': '2019-09-25 10:22:15'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 10:28:26', 'context': '查无结果', 'ftime': '2019-09-10 10:28:26'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.067131</v>
+        <v>0.063584</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.010336</v>
+        <v>0.00889</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (5).xlsx
+++ b/data_excel/接口测试用例_ (5).xlsx
@@ -582,11 +582,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 21:52:56', 'ftime': '2019-09-28 21:52:56', 'context': '[福建福州分拨中心]进行装车扫描，发往：浙江杭州分拨中心', 'location': '福建福州分拨中心'}, {'time': '2019-09-28 21:49:32', 'ftime': '2019-09-28 21:49:32', 'context': '[福建福州分拨中心]在分拨中心进行称重扫描', 'location': '福建福州分拨中心'}, {'time': '2019-09-28 17:52:33', 'ftime': '2019-09-28 17:52:33', 'context': '[福建霞浦县公司]进行揽件扫描', 'location': '福建霞浦县公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-25 19:19:37', 'ftime': '2019-09-25 19:19:37', 'context': '【东莞市】 快件已在 【东莞樟木头】 签收, 签收人: 本人, 如有疑问请电联:13712608328 / 0769-87764833, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-09-25 15:06:59', 'ftime': '2019-09-25 15:06:59', 'context': '【东莞市】 【东莞樟木头】 的黄文住（13712608328） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-25 14:40:03', 'ftime': '2019-09-25 14:40:03', 'context': '【东莞市】 快件已经到达 【东莞樟木头】', 'location': ''}, {'time': '2019-09-25 10:16:21', 'ftime': '2019-09-25 10:16:21', 'context': '【东莞市】 快件离开 【东莞中心】 已发往 【东莞樟木头】', 'location': ''}, {'time': '2019-09-25 10:12:33', 'ftime': '2019-09-25 10:12:33', 'context': '【东莞市】 快件已经到达 【东莞中心】', 'location': ''}, {'time': '2019-09-24 23:29:16', 'ftime': '2019-09-24 23:29:16', 'context': '【揭阳市】 快件离开 【潮汕中心】 已发往 【东莞中心】', 'location': ''}, {'time': '2019-09-24 23:27:39', 'ftime': '2019-09-24 23:27:39', 'context': '【揭阳市】 快件已经到达 【潮汕中心】', 'location': ''}, {'time': '2019-09-24 21:44:06', 'ftime': '2019-09-24 21:44:06', 'context': '【揭阳市】 快件离开 【揭阳】 已发往 【潮汕中心】', 'location': ''}, {'time': '2019-09-24 19:10:12', 'ftime': '2019-09-24 19:10:12', 'context': '【揭阳市】 【揭阳】（0663-8580666、0663-8386858、0663-8554100） 的 林凯丹新锡业务（18122665609） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.073975</v>
+        <v>0.071143</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -643,11 +643,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.009381</v>
+        <v>0.009738999999999999</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -697,11 +697,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-28 10:44:20', 'ftime': '2019-09-28 10:44:20', 'context': '【天津市】 快件已在 【天津河北分部】 签收, 签收人: 拍照签收, 如有疑问请电联:18722603175 / 022-85539762, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-09-28 07:58:07', 'ftime': '2019-09-28 07:58:07', 'context': '【天津市】 【天津河北分部】 的王正兵（18722603175） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-28 06:20:55', 'ftime': '2019-09-28 06:20:55', 'context': '【天津市】 快件已经到达 【天津河北分部】', 'location': ''}, {'time': '2019-09-27 16:40:38', 'ftime': '2019-09-27 16:40:38', 'context': '【天津市】 快件离开 【天津中转部】 已发往 【天津河北分部】', 'location': ''}, {'time': '2019-09-27 16:33:59', 'ftime': '2019-09-27 16:33:59', 'context': '【天津市】 快件已经到达 【天津中转部】', 'location': ''}, {'time': '2019-09-27 01:27:42', 'ftime': '2019-09-27 01:27:42', 'context': '【淮安市】 快件离开 【淮安中转】 已发往 【天津中转部】', 'location': ''}, {'time': '2019-09-26 21:11:17', 'ftime': '2019-09-26 21:11:17', 'context': '【淮安市】 快件已经到达 【淮安中转】', 'location': ''}, {'time': '2019-09-24 14:08:40', 'ftime': '2019-09-24 14:08:40', 'context': '【徐州市】 快件已经到达 【睢宁】', 'location': ''}, {'time': '2019-09-23 09:25:42', 'ftime': '2019-09-23 09:25:42', 'context': '【徐州市】 【睢宁刘圩】（18262477878） 的 王浩（18251642676） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 14:41:24', 'ftime': '2019-09-29 14:41:24', 'context': '[山东梁山县公司]进行派件扫描；派送业务员：刘尽珍；联系电话：15563163369', 'location': '山东梁山县公司'}, {'time': '2019-09-29 14:12:59', 'ftime': '2019-09-29 14:12:59', 'context': '[山东梁山县公司]到达目的地网点，快件很快进行派送', 'location': '山东梁山县公司'}, {'time': '2019-09-29 08:53:06', 'ftime': '2019-09-29 08:53:06', 'context': '[山东济南分拨中心]从站点发出，本次转运目的地：山东梁山县公司', 'location': '山东济南分拨中心'}, {'time': '2019-09-29 06:12:39', 'ftime': '2019-09-29 06:12:39', 'context': '[山东济南分拨中心]在分拨中心进行卸车扫描', 'location': '山东济南分拨中心'}, {'time': '2019-09-28 22:16:40', 'ftime': '2019-09-28 22:16:40', 'context': '[山东潍坊分拨中心]进行装车扫描，发往：山东济南分拨中心', 'location': '山东潍坊分拨中心'}, {'time': '2019-09-28 22:05:49', 'ftime': '2019-09-28 22:05:49', 'context': '[山东潍坊分拨中心]进行中转集包扫描，发往：山东济南分拨中心', 'location': '山东潍坊分拨中心'}, {'time': '2019-09-28 21:14:36', 'ftime': '2019-09-28 21:14:36', 'context': '[山东潍坊分拨中心]在分拨中心进行称重扫描', 'location': '山东潍坊分拨中心'}, {'time': '2019-09-28 18:57:43', 'ftime': '2019-09-28 18:57:43', 'context': '[山东奎文区公司]进行揽件扫描', 'location': '山东奎文区公司'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.068839</v>
+        <v>0.073322</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -751,11 +751,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.009514</v>
+        <v>0.009273999999999999</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -805,11 +805,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:46:08', 'ftime': '2019-09-29 09:46:08', 'context': '货物已到达【成都青白江分拣中心】', 'location': ''}, {'time': '2019-09-29 09:26:18', 'ftime': '2019-09-29 09:26:18', 'context': '货物已到达【成都青白江分拣中心】', 'location': ''}, {'time': '2019-09-27 21:08:32', 'ftime': '2019-09-27 21:08:32', 'context': '货物已完成分拣，离开【金华分拨中心】', 'location': ''}, {'time': '2019-09-27 19:51:18', 'ftime': '2019-09-27 19:51:18', 'context': '货物已到达【金华分拨中心】', 'location': ''}, {'time': '2019-09-27 17:38:26', 'ftime': '2019-09-27 17:38:26', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-27 17:38:26', 'ftime': '2019-09-27 17:38:26', 'context': '配送员杨超已经揽收完成', 'location': ''}, {'time': '2019-09-27 17:34:38', 'ftime': '2019-09-27 17:34:38', 'context': '配送员马玉安操作再取，再取原因为：托寄物未准备好,下次预计揽收时间为09月28日22:00-23:00', 'location': ''}, {'time': '2019-09-26 16:22:27', 'ftime': '2019-09-26 16:22:27', 'context': '揽收任务已分配给杨超,配送员电话18079307045或0579-85999089', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-27 15:47:17', 'ftime': '2019-07-27 15:47:17', 'context': '已签收，签收人类型：同事', 'location': None}, {'time': '2019-07-27 15:46:33', 'ftime': '2019-07-27 15:46:33', 'context': '派送中', 'location': None}, {'time': '2019-07-27 15:45:42', 'ftime': '2019-07-27 15:45:42', 'context': '预派送', 'location': None}, {'time': '2019-07-27 11:53:27', 'ftime': '2019-07-27 11:53:27', 'context': '预派送', 'location': None}, {'time': '2019-07-27 11:23:55', 'ftime': '2019-07-27 11:23:55', 'context': '货物已到达深圳龙华新区大浪街道快递分部', 'location': None}, {'time': '2019-07-27 10:54:21', 'ftime': '2019-07-27 10:54:21', 'context': '运输中，离开【深圳坂田集配站】，下一站【深圳龙华新区大浪街道快递分部】', 'location': None}, {'time': '2019-07-27 10:37:13', 'ftime': '2019-07-27 10:37:13', 'context': '运输中，离开【深圳坂田集配站】，下一站【深圳龙华新区大浪街道快递分部】', 'location': None}, {'time': '2019-07-27 06:11:50', 'ftime': '2019-07-27 06:11:50', 'context': '货物已到达深圳坂田集配站', 'location': None}, {'time': '2019-07-27 05:05:56', 'ftime': '2019-07-27 05:05:56', 'context': '运输中，离开【深圳转运场】，下一站【深圳坂田集配站】', 'location': None}, {'time': '2019-07-27 02:43:25', 'ftime': '2019-07-27 02:43:25', 'context': '货物已到达深圳转运场', 'location': None}, {'time': '2019-07-26 23:30:50', 'ftime': '2019-07-26 23:30:50', 'context': '运输中，离开【顺德枢纽中心】，下一站【深圳转运场】', 'location': None}, {'time': '2019-07-26 20:59:42', 'ftime': '2019-07-26 20:59:42', 'context': '货物已到达顺德枢纽中心', 'location': None}, {'time': '2019-07-26 20:26:17', 'ftime': '2019-07-26 20:26:17', 'context': '运输中，离开【佛山顺德区大良快递分部】，下一站【顺德枢纽中心】', 'location': None}, {'time': '2019-07-26 17:04:31', 'ftime': '2019-07-26 17:04:31', 'context': '您的订单已被收件员揽收,【佛山顺德区大良快递分部】库存中', 'location': None}, {'time': '2019-07-26 17:04:31', 'ftime': '2019-07-26 17:04:31', 'context': '您的订单已被收件员揽收，【佛山顺德区大良快递分部,电话：15916030429】库存中', 'location': None}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.06986299999999999</v>
+        <v>0.077948</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -857,11 +857,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.015122</v>
+        <v>0.008662</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -911,11 +911,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-04 11:52:00', 'ftime': '2018-11-04 11:52:00', 'context': '[嘉兴市]嘉兴市【桐乡市梧桐二部】，富友收件宝 已签收', 'location': None}, {'time': '2018-11-04 10:40:36', 'ftime': '2018-11-04 10:40:36', 'context': '[嘉兴市]嘉兴市【桐乡市梧桐二部】，【龙秀杰/18268395271】正在派件', 'location': None}, {'time': '2018-11-04 09:27:48', 'ftime': '2018-11-04 09:27:48', 'context': '[嘉兴市]到嘉兴市【桐乡市梧桐二部】', 'location': None}, {'time': '2018-11-04 02:33:56', 'ftime': '2018-11-04 02:33:56', 'context': '[嘉兴市]嘉兴市【嘉兴转运中心】，正发往【桐乡市梧桐二部】', 'location': None}, {'time': '2018-11-04 02:18:41', 'ftime': '2018-11-04 02:18:41', 'context': '[嘉兴市]到嘉兴市【嘉兴转运中心】', 'location': None}, {'time': '2018-11-03 23:12:19', 'ftime': '2018-11-03 23:12:19', 'context': '[杭州市]杭州市【杭州转运中心】，正发往【嘉兴转运中心】', 'location': None}, {'time': '2018-11-03 22:18:08', 'ftime': '2018-11-03 22:18:08', 'context': '[杭州市]到杭州市【杭州转运中心】', 'location': None}, {'time': '2018-11-02 22:48:58', 'ftime': '2018-11-02 22:48:58', 'context': '[太原市]太原市【太原转运中心】，正发往【杭州转运中心】', 'location': None}, {'time': '2018-11-02 21:09:20', 'ftime': '2018-11-02 21:09:20', 'context': '[太原市]到太原市【太原转运中心】', 'location': None}, {'time': '2018-11-02 15:07:47', 'ftime': '2018-11-02 15:07:47', 'context': '[长治市]长治市【沁县】，正发往【太原转运中心】', 'location': None}, {'time': '2018-11-02 14:05:11', 'ftime': '2018-11-02 14:05:11', 'context': '[长治市]长治市【沁县】，【陈四明/18103450001】已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 10:31:38', 'ftime': '2019-09-29 10:31:38', 'context': '已签收,签收人是（同事代签）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员商贸城(15325221345)，感谢使用申通快递，期待再次为您服务', 'location': ''}, {'time': '2019-09-29 10:14:54', 'ftime': '2019-09-29 10:14:54', 'context': '浙江诸暨王家井服务点-商贸城(15325221345)-派件中', 'location': ''}, {'time': '2019-09-29 09:29:54', 'ftime': '2019-09-29 09:29:54', 'context': '已到达-浙江诸暨王家井服务点', 'location': ''}, {'time': '2019-09-29 06:36:18', 'ftime': '2019-09-29 06:36:18', 'context': '浙江诸暨公司-已发往-浙江诸暨王家井服务点', 'location': ''}, {'time': '2019-09-29 06:24:13', 'ftime': '2019-09-29 06:24:13', 'context': '已到达-浙江诸暨公司', 'location': ''}, {'time': '2019-09-28 18:24:30', 'ftime': '2019-09-28 18:24:30', 'context': '浙江杭州中转部-已装袋发往-浙江诸暨公司', 'location': ''}, {'time': '2019-09-28 18:11:40', 'ftime': '2019-09-28 18:11:40', 'context': '已到达-浙江杭州中转部', 'location': ''}, {'time': '2019-09-27 21:08:48', 'ftime': '2019-09-27 21:08:48', 'context': '山东胶东转运中心-已装袋发往-浙江杭州中转部', 'location': ''}, {'time': '2019-09-27 21:08:48', 'ftime': '2019-09-27 21:08:48', 'context': '山东胶东转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-27 20:14:43', 'ftime': '2019-09-27 20:14:43', 'context': '山东胶东转运中心-已发往-浙江杭州中转部', 'location': ''}, {'time': '2019-09-27 20:14:43', 'ftime': '2019-09-27 20:14:43', 'context': '山东胶东转运中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-27 20:13:05', 'ftime': '2019-09-27 20:13:05', 'context': '已到达-山东胶东转运中心', 'location': ''}, {'time': '2019-09-27 17:49:05', 'ftime': '2019-09-27 17:49:05', 'context': '山东青岛浮山后公司-已发往-山东胶东转运中心', 'location': ''}, {'time': '2019-09-27 17:05:51', 'ftime': '2019-09-27 17:05:51', 'context': '山东青岛浮山后公司-浮山后18562780081-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.06804300000000001</v>
+        <v>0.075291</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -963,11 +963,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.047035</v>
+        <v>0.009617000000000001</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1017,11 +1017,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-01 10:28:25', 'context': '查无结果', 'ftime': '2019-09-01 10:28:25'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-18 16:10:55', 'context': '查无结果', 'ftime': '2019-09-18 16:10:55'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.068629</v>
+        <v>0.065734</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1069,11 +1069,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.009335</v>
+        <v>0.010132</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1132,11 +1132,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-14 11:45:40', 'ftime': '2018-11-14 11:45:40', 'context': '订单已由门卫代收，感谢您在京东购物，欢迎您再次光临！', 'location': None}, {'time': '2018-11-14 09:52:02', 'ftime': '2018-11-14 09:52:02', 'context': '配送员开始配送，请您准备收货，配送员，杨衍，手机号，13327797838', 'location': None}, {'time': '2018-11-14 09:37:58', 'ftime': '2018-11-14 09:37:58', 'context': '货物已分配，等待配送', 'location': None}, {'time': '2018-11-14 09:37:57', 'ftime': '2018-11-14 09:37:57', 'context': '货物已到达【泰州高港站】', 'location': None}, {'time': '2018-11-14 04:24:58', 'ftime': '2018-11-14 04:24:58', 'context': '货物已完成分拣，离开【泰州中转场】', 'location': None}, {'time': '2018-11-13 20:47:02', 'ftime': '2018-11-13 20:47:02', 'context': '货物已到达【泰州中转场】', 'location': None}, {'time': '2018-11-13 11:59:48', 'ftime': '2018-11-13 11:59:48', 'context': '货物已完成分拣，离开【昆山宇培分拣中心】', 'location': None}, {'time': '2018-11-11 23:47:10', 'ftime': '2018-11-11 23:47:10', 'context': '货物已完成分拣，离开【成都青白江分拣中心】', 'location': None}, {'time': '2018-11-11 23:15:19', 'ftime': '2018-11-11 23:15:19', 'context': '货物已到达【成都青白江分拣中心】', 'location': None}, {'time': '2018-11-11 23:06:51', 'ftime': '2018-11-11 23:06:51', 'context': '货物已到达【成都青白江分拣中心】', 'location': None}, {'time': '2018-11-11 20:16:15', 'ftime': '2018-11-11 20:16:15', 'context': '您的货物由于客户取消寄件原因我司配送员未揽收成功 ，如有寄件需求请您重新下单，感谢您选择京东物流;', 'location': None}, {'time': '2018-11-11 19:19:41', 'ftime': '2018-11-11 19:19:41', 'context': '货物已交付京东物流', 'location': None}, {'time': '2018-11-11 19:19:41', 'ftime': '2018-11-11 19:19:41', 'context': '配送员蒋龙凤已经揽收完成', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-09-28 13:01:58', 'ftime': '2018-09-28 13:01:58', 'context': '[周口市]周口市【周口二分部】，我是派件员徐帅有事请联系03947882211还上门取件 已签收', 'location': None}, {'time': '2018-09-28 12:56:59', 'ftime': '2018-09-28 12:56:59', 'context': '[周口市]周口市【周口二分部】，【徐帅/18838354171】正在派件', 'location': None}, {'time': '2018-09-28 12:55:59', 'ftime': '2018-09-28 12:55:59', 'context': '[周口市]到周口市【周口二分部】', 'location': None}, {'time': '2018-09-28 07:48:18', 'ftime': '2018-09-28 07:48:18', 'context': '[周口市]周口市【周口】，正发往【周口二分部】', 'location': None}, {'time': '2018-09-28 07:04:03', 'ftime': '2018-09-28 07:04:03', 'context': '[周口市]到周口市【周口】', 'location': None}, {'time': '2018-09-27 23:39:10', 'ftime': '2018-09-27 23:39:10', 'context': '[漯河市]漯河市【漯河转运中心】，正发往【周口】', 'location': None}, {'time': '2018-09-27 14:32:57', 'ftime': '2018-09-27 14:32:57', 'context': '[漯河市]到漯河市【漯河转运中心】', 'location': None}, {'time': '2018-09-27 09:30:37', 'ftime': '2018-09-27 09:30:37', 'context': '[郑州市]郑州市【郑州转运中心】，正发往【漯河转运中心】', 'location': None}, {'time': '2018-09-27 07:18:59', 'ftime': '2018-09-27 07:18:59', 'context': '[郑州市]到郑州市【郑州转运中心】', 'location': None}, {'time': '2018-09-26 06:03:24', 'ftime': '2018-09-26 06:03:24', 'context': '[广州市]广州市【广州转运中心】，正发往【郑州转运中心】', 'location': None}, {'time': '2018-09-26 04:20:05', 'ftime': '2018-09-26 04:20:05', 'context': '[广州市]到广州市【广州转运中心】', 'location': None}, {'time': '2018-09-26 01:14:46', 'ftime': '2018-09-26 01:14:46', 'context': '[广州市]到广州市【广州东圃B站集货点】', 'location': None}, {'time': '2018-09-25 20:04:38', 'ftime': '2018-09-25 20:04:38', 'context': '[广州市]广州市【广州白云区十六部】，【江裕豪/18594982716】已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.07169200000000001</v>
+        <v>0.07491399999999999</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1193,11 +1193,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.011021</v>
+        <v>0.009214999999999999</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1256,11 +1256,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-20 17:45:45', 'ftime': '2019-09-20 17:45:45', 'context': '[广东珠海公司拱北桂花分部]快件已被 宏翔地产 代签收如有问题请联系何鹏新【18675612510】。', 'location': None}, {'time': '2019-09-20 15:59:59', 'ftime': '2019-09-20 15:59:59', 'context': '[广东珠海公司拱北桂花分部]进行派件扫描；派送业务员：何鹏新；联系电话：18675612510', 'location': None}, {'time': '2019-09-20 14:55:20', 'ftime': '2019-09-20 14:55:20', 'context': '[广东珠海公司拱北桂花分部]到达目的地网点，快件很快进行派送', 'location': None}, {'time': '2019-09-20 12:45:45', 'ftime': '2019-09-20 12:45:45', 'context': '[广东珠海公司]进行快件扫描，发往：广东珠海公司拱北桂花分部', 'location': None}, {'time': '2019-09-20 08:22:31', 'ftime': '2019-09-20 08:22:31', 'context': '[广东中山分拨中心]从站点发出，本次转运目的地：广东珠海公司', 'location': None}, {'time': '2019-09-20 08:11:46', 'ftime': '2019-09-20 08:11:46', 'context': '[广东中山分拨中心]在分拨中心进行卸车扫描', 'location': None}, {'time': '2019-09-20 02:53:32', 'ftime': '2019-09-20 02:53:32', 'context': '[广东广州分拨中心]进行装车扫描，发往：广东中山分拨中心', 'location': None}, {'time': '2019-09-20 02:48:43', 'ftime': '2019-09-20 02:48:43', 'context': '[广东广州分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-09-19 23:04:46', 'ftime': '2019-09-19 23:04:46', 'context': '[广东广州白云区同德公司]进行下级地点扫描，发往：广东珠海公司', 'location': None}, {'time': '2019-09-19 22:29:49', 'ftime': '2019-09-19 22:29:49', 'context': '[广东广州白云区同德公司]进行揽件扫描', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-20 16:10:55', 'context': '查无结果', 'ftime': '2019-09-20 16:10:55'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.073423</v>
+        <v>0.062958</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1308,11 +1308,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.010637</v>
+        <v>0.009417</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1362,11 +1362,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-27 17:32:47', 'ftime': '2019-09-27 17:32:47', 'context': '[宁夏石嘴山大武口区公司]快件已被 锦城电商便利店（快递柜代收） 代签收如有问题请联系黄青青【18095280508】。', 'location': '宁夏石嘴山大武口区公司'}, {'time': '2019-09-27 15:34:06', 'ftime': '2019-09-27 15:34:06', 'context': '[宁夏石嘴山大武口区公司]进行派件扫描；派送业务员：黄青青；联系电话：18095280508', 'location': '宁夏石嘴山大武口区公司'}, {'time': '2019-09-27 11:24:15', 'ftime': '2019-09-27 11:24:15', 'context': '[宁夏银川分拨中心]从站点发出，本次转运目的地：宁夏石嘴山大武口区公司', 'location': '宁夏银川分拨中心'}, {'time': '2019-09-26 12:48:58', 'ftime': '2019-09-26 12:48:58', 'context': '[陕西西安分拨中心]进行装车扫描，发往：宁夏银川分拨中心', 'location': '陕西西安分拨中心'}, {'time': '2019-09-26 12:46:04', 'ftime': '2019-09-26 12:46:04', 'context': '[陕西西安分拨中心]在分拨中心进行卸车扫描', 'location': '陕西西安分拨中心'}, {'time': '2019-09-24 22:23:26', 'ftime': '2019-09-24 22:23:26', 'context': '[广东东莞分拨中心]进行装车扫描，发往：陕西西安分拨中心', 'location': '广东东莞分拨中心'}, {'time': '2019-09-24 22:15:13', 'ftime': '2019-09-24 22:15:13', 'context': '[广东东莞分拨中心]在分拨中心进行称重扫描', 'location': '广东东莞分拨中心'}, {'time': '2019-09-24 16:59:51', 'ftime': '2019-09-24 16:59:51', 'context': '到达：【深圳口岸】包裹清关完成', 'location': ''}, {'time': '2019-09-24 11:16:06', 'ftime': '2019-09-24 11:16:06', 'context': '到达：【深圳口岸】包裹清关中', 'location': ''}, {'time': '2019-09-24 09:09:52', 'ftime': '2019-09-24 09:09:52', 'context': '到达：【中国-深圳】国际干线运输已到达【海关监管仓】', 'location': ''}, {'time': '2019-09-24 02:28:37', 'ftime': '2019-09-24 02:28:37', 'context': '到达：【香港-新界】，国际干线运输已从【新界海外仓】启程，航（班）次号：', 'location': ''}, {'time': '2019-09-23 23:55:29', 'ftime': '2019-09-23 23:55:29', 'context': '【香港-新界】包裹已从【新界海外仓】出库，等待干线运输', 'location': ''}, {'time': '2019-09-23 22:53:52', 'ftime': '2019-09-23 22:53:52', 'context': '【香港-新界】包裹已到达【新界海外仓】', 'location': ''}, {'time': '2019-09-23 21:18:59', 'ftime': '2019-09-23 21:18:59', 'context': '[香港韵达公司新界北区服务部]进行揽件扫描', 'location': '香港韵达公司新界北区服务部'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:24:47', 'ftime': '2019-09-29 08:24:47', 'context': '离开【南宁中心】,下一站【石家中心】', 'location': '南宁中心'}, {'time': '2019-09-28 22:59:19', 'ftime': '2019-09-28 22:59:19', 'context': '到达【南宁中心】', 'location': '南宁中心'}, {'time': '2019-09-28 22:57:14', 'ftime': '2019-09-28 22:57:14', 'context': '离开【南宁市安吉小包营业部】,下一站【南宁中心】', 'location': '南宁市安吉小包营业部'}, {'time': '2019-09-28 22:04:02', 'ftime': '2019-09-28 22:04:02', 'context': '南宁市 【南宁市安吉小包营业部】已收件,揽投员:胡守香,电话:13000000000', 'location': '南宁市安吉小包营业部'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.074252</v>
+        <v>0.073361</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1414,11 +1414,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.010062</v>
+        <v>0.010033</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1477,11 +1477,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-10 10:28:26', 'context': '查无结果', 'ftime': '2019-09-10 10:28:26'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-29 16:10:55', 'context': '查无结果', 'ftime': '2019-09-29 16:10:55'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.063584</v>
+        <v>0.067541</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1538,11 +1538,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.00889</v>
+        <v>0.009475000000000001</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (5).xlsx
+++ b/data_excel/接口测试用例_ (5).xlsx
@@ -110,6 +110,20 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -458,10 +472,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -473,8 +487,9 @@
     <col width="22.5" customWidth="1" style="2" min="5" max="5"/>
     <col width="32.25" customWidth="1" style="2" min="6" max="6"/>
     <col width="19.75" customWidth="1" style="2" min="7" max="7"/>
-    <col width="28.75" customWidth="1" style="2" min="8" max="8"/>
-    <col width="14.375" customWidth="1" style="4" min="9" max="11"/>
+    <col width="11.5" customWidth="1" style="2" min="8" max="8"/>
+    <col width="28.75" customWidth="1" style="2" min="9" max="9"/>
+    <col width="14.375" customWidth="1" style="4" min="10" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" s="2">
@@ -515,20 +530,25 @@
       </c>
       <c r="H1" s="8" t="inlineStr">
         <is>
+          <t>用例级别</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
           <t>响应报文</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>响应时间</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>状态码</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="L1" s="9" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
@@ -580,18 +600,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-25 19:19:37', 'ftime': '2019-09-25 19:19:37', 'context': '【东莞市】 快件已在 【东莞樟木头】 签收, 签收人: 本人, 如有疑问请电联:13712608328 / 0769-87764833, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-09-25 15:06:59', 'ftime': '2019-09-25 15:06:59', 'context': '【东莞市】 【东莞樟木头】 的黄文住（13712608328） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-25 14:40:03', 'ftime': '2019-09-25 14:40:03', 'context': '【东莞市】 快件已经到达 【东莞樟木头】', 'location': ''}, {'time': '2019-09-25 10:16:21', 'ftime': '2019-09-25 10:16:21', 'context': '【东莞市】 快件离开 【东莞中心】 已发往 【东莞樟木头】', 'location': ''}, {'time': '2019-09-25 10:12:33', 'ftime': '2019-09-25 10:12:33', 'context': '【东莞市】 快件已经到达 【东莞中心】', 'location': ''}, {'time': '2019-09-24 23:29:16', 'ftime': '2019-09-24 23:29:16', 'context': '【揭阳市】 快件离开 【潮汕中心】 已发往 【东莞中心】', 'location': ''}, {'time': '2019-09-24 23:27:39', 'ftime': '2019-09-24 23:27:39', 'context': '【揭阳市】 快件已经到达 【潮汕中心】', 'location': ''}, {'time': '2019-09-24 21:44:06', 'ftime': '2019-09-24 21:44:06', 'context': '【揭阳市】 快件离开 【揭阳】 已发往 【潮汕中心】', 'location': ''}, {'time': '2019-09-24 19:10:12', 'ftime': '2019-09-24 19:10:12', 'context': '【揭阳市】 【揭阳】（0663-8580666、0663-8386858、0663-8554100） 的 林凯丹新锡业务（18122665609） 已揽收', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.071143</v>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 22:47:38', 'ftime': '2019-10-07 22:47:38', 'context': '快件由【河北石家庄转运】发往【华北廊坊枢纽】', 'location': None}, {'time': '2019-10-07 22:21:56', 'ftime': '2019-10-07 22:21:56', 'context': '快件到达【河北石家庄转运】', 'location': None}, {'time': '2019-10-07 17:32:37', 'ftime': '2019-10-07 17:32:37', 'context': '快件由【保定定州0312-2386769】发往【河北石家庄转运】', 'location': None}, {'time': '2019-10-07 17:32:20', 'ftime': '2019-10-07 17:32:20', 'context': '【保定定州0312-2386769】的张晓杰已收件', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J2" s="3" t="n">
+        <v>0.07087499999999999</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -641,22 +666,15 @@
       <c r="G3" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.009738999999999999</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
     </row>
     <row r="4" ht="39.95" customHeight="1" s="2">
       <c r="A4" s="3" t="n">
@@ -695,18 +713,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 14:41:24', 'ftime': '2019-09-29 14:41:24', 'context': '[山东梁山县公司]进行派件扫描；派送业务员：刘尽珍；联系电话：15563163369', 'location': '山东梁山县公司'}, {'time': '2019-09-29 14:12:59', 'ftime': '2019-09-29 14:12:59', 'context': '[山东梁山县公司]到达目的地网点，快件很快进行派送', 'location': '山东梁山县公司'}, {'time': '2019-09-29 08:53:06', 'ftime': '2019-09-29 08:53:06', 'context': '[山东济南分拨中心]从站点发出，本次转运目的地：山东梁山县公司', 'location': '山东济南分拨中心'}, {'time': '2019-09-29 06:12:39', 'ftime': '2019-09-29 06:12:39', 'context': '[山东济南分拨中心]在分拨中心进行卸车扫描', 'location': '山东济南分拨中心'}, {'time': '2019-09-28 22:16:40', 'ftime': '2019-09-28 22:16:40', 'context': '[山东潍坊分拨中心]进行装车扫描，发往：山东济南分拨中心', 'location': '山东潍坊分拨中心'}, {'time': '2019-09-28 22:05:49', 'ftime': '2019-09-28 22:05:49', 'context': '[山东潍坊分拨中心]进行中转集包扫描，发往：山东济南分拨中心', 'location': '山东潍坊分拨中心'}, {'time': '2019-09-28 21:14:36', 'ftime': '2019-09-28 21:14:36', 'context': '[山东潍坊分拨中心]在分拨中心进行称重扫描', 'location': '山东潍坊分拨中心'}, {'time': '2019-09-28 18:57:43', 'ftime': '2019-09-28 18:57:43', 'context': '[山东奎文区公司]进行揽件扫描', 'location': '山东奎文区公司'}]}</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.073322</v>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-08-09 13:45:55', 'ftime': '2019-08-09 13:45:55', 'context': '客户签收人: 王永刚 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：18521126323，投诉电话：0432-66234000', 'location': ''}, {'time': '2019-08-09 07:26:45', 'ftime': '2019-08-09 07:26:45', 'context': '【吉林省吉林市桦甸市公司】 派件中 派件人: 陈跃喜 电话 18521126323 如有疑问，请联系：0432-66234000', 'location': ''}, {'time': '2019-08-09 07:24:37', 'ftime': '2019-08-09 07:24:37', 'context': '【吉林省吉林市桦甸市公司】 已收入', 'location': ''}, {'time': '2019-08-08 07:20:51', 'ftime': '2019-08-08 07:20:51', 'context': '【长春转运中心】 已发出 下一站 【吉林省吉林市桦甸市】', 'location': ''}, {'time': '2019-08-08 06:07:13', 'ftime': '2019-08-08 06:07:13', 'context': '【长春转运中心公司】 已收入', 'location': ''}, {'time': '2019-08-07 12:44:00', 'ftime': '2019-08-07 12:44:00', 'context': '【沈阳转运中心】 已发出 下一站 【长春转运中心】', 'location': ''}, {'time': '2019-08-07 08:03:47', 'ftime': '2019-08-07 08:03:47', 'context': '【沈阳转运中心公司】 已收入', 'location': ''}, {'time': '2019-08-06 04:35:01', 'ftime': '2019-08-06 04:35:01', 'context': '【武汉转运中心】 已发出 下一站 【沈阳转运中心】', 'location': ''}, {'time': '2019-08-06 04:19:22', 'ftime': '2019-08-06 04:19:22', 'context': '【武汉转运中心公司】 已打包', 'location': ''}, {'time': '2019-08-06 01:29:30', 'ftime': '2019-08-06 01:29:30', 'context': '【武汉转运中心公司】 已收入', 'location': ''}, {'time': '2019-08-05 18:59:01', 'ftime': '2019-08-05 18:59:01', 'context': '【湖北省随州市】 已发出 下一站 【武汉转运中心】', 'location': ''}, {'time': '2019-08-05 09:20:17', 'ftime': '2019-08-05 09:20:17', 'context': '【湖北省随州市公司】 已收件 取件人: 余星新 (18521118271)', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J4" s="3" t="n">
+        <v>0.078183</v>
+      </c>
+      <c r="K4" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -744,27 +767,18 @@
 }</t>
         </is>
       </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>1000d</t>
-        </is>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0.009273999999999999</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>fail</t>
-        </is>
-      </c>
+      <c r="G5" s="5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
     </row>
     <row r="6" ht="39.95" customHeight="1" s="2">
       <c r="A6" s="3" t="n">
@@ -803,18 +817,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-27 15:47:17', 'ftime': '2019-07-27 15:47:17', 'context': '已签收，签收人类型：同事', 'location': None}, {'time': '2019-07-27 15:46:33', 'ftime': '2019-07-27 15:46:33', 'context': '派送中', 'location': None}, {'time': '2019-07-27 15:45:42', 'ftime': '2019-07-27 15:45:42', 'context': '预派送', 'location': None}, {'time': '2019-07-27 11:53:27', 'ftime': '2019-07-27 11:53:27', 'context': '预派送', 'location': None}, {'time': '2019-07-27 11:23:55', 'ftime': '2019-07-27 11:23:55', 'context': '货物已到达深圳龙华新区大浪街道快递分部', 'location': None}, {'time': '2019-07-27 10:54:21', 'ftime': '2019-07-27 10:54:21', 'context': '运输中，离开【深圳坂田集配站】，下一站【深圳龙华新区大浪街道快递分部】', 'location': None}, {'time': '2019-07-27 10:37:13', 'ftime': '2019-07-27 10:37:13', 'context': '运输中，离开【深圳坂田集配站】，下一站【深圳龙华新区大浪街道快递分部】', 'location': None}, {'time': '2019-07-27 06:11:50', 'ftime': '2019-07-27 06:11:50', 'context': '货物已到达深圳坂田集配站', 'location': None}, {'time': '2019-07-27 05:05:56', 'ftime': '2019-07-27 05:05:56', 'context': '运输中，离开【深圳转运场】，下一站【深圳坂田集配站】', 'location': None}, {'time': '2019-07-27 02:43:25', 'ftime': '2019-07-27 02:43:25', 'context': '货物已到达深圳转运场', 'location': None}, {'time': '2019-07-26 23:30:50', 'ftime': '2019-07-26 23:30:50', 'context': '运输中，离开【顺德枢纽中心】，下一站【深圳转运场】', 'location': None}, {'time': '2019-07-26 20:59:42', 'ftime': '2019-07-26 20:59:42', 'context': '货物已到达顺德枢纽中心', 'location': None}, {'time': '2019-07-26 20:26:17', 'ftime': '2019-07-26 20:26:17', 'context': '运输中，离开【佛山顺德区大良快递分部】，下一站【顺德枢纽中心】', 'location': None}, {'time': '2019-07-26 17:04:31', 'ftime': '2019-07-26 17:04:31', 'context': '您的订单已被收件员揽收,【佛山顺德区大良快递分部】库存中', 'location': None}, {'time': '2019-07-26 17:04:31', 'ftime': '2019-07-26 17:04:31', 'context': '您的订单已被收件员揽收，【佛山顺德区大良快递分部,电话：15916030429】库存中', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0.077948</v>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 12:07:37', 'ftime': '2019-09-29 12:07:37', 'context': '【舟山市】 快件已在 【舟山】 签收, 签收人: 同事/同学, 如有疑问请电联:17714188744 / 0580-8890989, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-09-29 07:06:04', 'ftime': '2019-09-29 07:06:04', 'context': '【舟山市】 【舟山】 的定海市区西五部（17714188744） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-29 07:03:14', 'ftime': '2019-09-29 07:03:14', 'context': '【舟山市】 快件已经到达 【舟山】', 'location': ''}, {'time': '2019-09-28 21:05:48', 'ftime': '2019-09-28 21:05:48', 'context': '【宁波市】 快件离开 【宁波中转部】 已发往 【舟山】', 'location': ''}, {'time': '2019-09-28 19:33:49', 'ftime': '2019-09-28 19:33:49', 'context': '【宁波市】 快件已经到达 【宁波中转部】', 'location': ''}, {'time': '2019-09-27 21:50:11', 'ftime': '2019-09-27 21:50:11', 'context': '【武汉市】 快件离开 【武汉中转部】 已发往 【宁波中转部】', 'location': ''}, {'time': '2019-09-27 21:46:19', 'ftime': '2019-09-27 21:46:19', 'context': '【武汉市】 快件已经到达 【武汉中转部】', 'location': ''}, {'time': '2019-09-27 18:31:01', 'ftime': '2019-09-27 18:31:01', 'context': '【武汉市】 【江岸三部】（027-82944339） 的 陈华平（13339992151） 已揽收', 'location': ''}, {'time': '2019-09-27 18:30:59', 'ftime': '2019-09-27 18:30:59', 'context': '【武汉市】 快件离开 【江岸三部】 已发往 【武汉中转部】', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J6" s="3" t="n">
+        <v>0.113669</v>
+      </c>
+      <c r="K6" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -855,22 +874,15 @@
       <c r="G7" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0.008662</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
     </row>
     <row r="8" ht="39.95" customHeight="1" s="2">
       <c r="A8" s="3" t="n">
@@ -906,23 +918,28 @@
       </c>
       <c r="G8" s="5" t="inlineStr">
         <is>
-          <t>oks</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 10:31:38', 'ftime': '2019-09-29 10:31:38', 'context': '已签收,签收人是（同事代签）先生/女士，风里来，雨里去，汗也撒泪也流，申通小哥一刻不停留。不求服务惊天下，但求好评动我心，给个好评呗！！如有疑问请联系派件员商贸城(15325221345)，感谢使用申通快递，期待再次为您服务', 'location': ''}, {'time': '2019-09-29 10:14:54', 'ftime': '2019-09-29 10:14:54', 'context': '浙江诸暨王家井服务点-商贸城(15325221345)-派件中', 'location': ''}, {'time': '2019-09-29 09:29:54', 'ftime': '2019-09-29 09:29:54', 'context': '已到达-浙江诸暨王家井服务点', 'location': ''}, {'time': '2019-09-29 06:36:18', 'ftime': '2019-09-29 06:36:18', 'context': '浙江诸暨公司-已发往-浙江诸暨王家井服务点', 'location': ''}, {'time': '2019-09-29 06:24:13', 'ftime': '2019-09-29 06:24:13', 'context': '已到达-浙江诸暨公司', 'location': ''}, {'time': '2019-09-28 18:24:30', 'ftime': '2019-09-28 18:24:30', 'context': '浙江杭州中转部-已装袋发往-浙江诸暨公司', 'location': ''}, {'time': '2019-09-28 18:11:40', 'ftime': '2019-09-28 18:11:40', 'context': '已到达-浙江杭州中转部', 'location': ''}, {'time': '2019-09-27 21:08:48', 'ftime': '2019-09-27 21:08:48', 'context': '山东胶东转运中心-已装袋发往-浙江杭州中转部', 'location': ''}, {'time': '2019-09-27 21:08:48', 'ftime': '2019-09-27 21:08:48', 'context': '山东胶东转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-27 20:14:43', 'ftime': '2019-09-27 20:14:43', 'context': '山东胶东转运中心-已发往-浙江杭州中转部', 'location': ''}, {'time': '2019-09-27 20:14:43', 'ftime': '2019-09-27 20:14:43', 'context': '山东胶东转运中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-27 20:13:05', 'ftime': '2019-09-27 20:13:05', 'context': '已到达-山东胶东转运中心', 'location': ''}, {'time': '2019-09-27 17:49:05', 'ftime': '2019-09-27 17:49:05', 'context': '山东青岛浮山后公司-已发往-山东胶东转运中心', 'location': ''}, {'time': '2019-09-27 17:05:51', 'ftime': '2019-09-27 17:05:51', 'context': '山东青岛浮山后公司-浮山后18562780081-已收件', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>0.075291</v>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-07 16:34:47', 'context': '查无结果', 'ftime': '2019-10-07 16:34:47'}]}</t>
+        </is>
       </c>
       <c r="J8" s="3" t="n">
+        <v>0.068636</v>
+      </c>
+      <c r="K8" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>fail</t>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
         </is>
       </c>
     </row>
@@ -961,22 +978,15 @@
       <c r="G9" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>0.009617000000000001</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
     </row>
     <row r="10" ht="39.95" customHeight="1" s="2">
       <c r="A10" s="3" t="n">
@@ -1015,18 +1025,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-18 16:10:55', 'context': '查无结果', 'ftime': '2019-09-18 16:10:55'}]}</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>0.065734</v>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-06 00:21:46', 'ftime': '2019-10-06 00:21:46', 'context': '河北石家庄转运中心-已装袋发往-江苏苏州转运中心', 'location': None}, {'time': '2019-10-06 00:21:46', 'ftime': '2019-10-06 00:21:46', 'context': '河北石家庄转运中心-已进行装车扫描', 'location': None}, {'time': '2019-10-06 00:18:01', 'ftime': '2019-10-06 00:18:01', 'context': '已到达-河北石家庄转运中心', 'location': None}, {'time': '2019-10-06 00:18:01', 'ftime': '2019-10-06 00:18:01', 'context': '快件已在【河北石家庄转运中心】进行卸车，扫描员【五连扫4】', 'location': None}, {'time': '2019-10-05 19:12:39', 'ftime': '2019-10-05 19:12:39', 'context': '已到达-河北衡水转运中心', 'location': None}, {'time': '2019-10-05 18:16:45', 'ftime': '2019-10-05 18:16:45', 'context': '河北衡水公司-已发往-河北衡水转运中心', 'location': None}, {'time': '2019-10-05 18:16:45', 'ftime': '2019-10-05 18:16:45', 'context': '河北衡水公司-已进行装袋扫描', 'location': None}, {'time': '2019-10-05 17:31:23', 'ftime': '2019-10-05 17:31:23', 'context': '河北衡水公司-小件7号(0318-2995543)-已收件', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J10" s="3" t="n">
+        <v>0.075583</v>
+      </c>
+      <c r="K10" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1067,22 +1082,15 @@
       <c r="G11" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>0.010132</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
     </row>
     <row r="12" ht="39.95" customHeight="1" s="2">
       <c r="A12" s="3" t="n">
@@ -1130,18 +1138,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-09-28 13:01:58', 'ftime': '2018-09-28 13:01:58', 'context': '[周口市]周口市【周口二分部】，我是派件员徐帅有事请联系03947882211还上门取件 已签收', 'location': None}, {'time': '2018-09-28 12:56:59', 'ftime': '2018-09-28 12:56:59', 'context': '[周口市]周口市【周口二分部】，【徐帅/18838354171】正在派件', 'location': None}, {'time': '2018-09-28 12:55:59', 'ftime': '2018-09-28 12:55:59', 'context': '[周口市]到周口市【周口二分部】', 'location': None}, {'time': '2018-09-28 07:48:18', 'ftime': '2018-09-28 07:48:18', 'context': '[周口市]周口市【周口】，正发往【周口二分部】', 'location': None}, {'time': '2018-09-28 07:04:03', 'ftime': '2018-09-28 07:04:03', 'context': '[周口市]到周口市【周口】', 'location': None}, {'time': '2018-09-27 23:39:10', 'ftime': '2018-09-27 23:39:10', 'context': '[漯河市]漯河市【漯河转运中心】，正发往【周口】', 'location': None}, {'time': '2018-09-27 14:32:57', 'ftime': '2018-09-27 14:32:57', 'context': '[漯河市]到漯河市【漯河转运中心】', 'location': None}, {'time': '2018-09-27 09:30:37', 'ftime': '2018-09-27 09:30:37', 'context': '[郑州市]郑州市【郑州转运中心】，正发往【漯河转运中心】', 'location': None}, {'time': '2018-09-27 07:18:59', 'ftime': '2018-09-27 07:18:59', 'context': '[郑州市]到郑州市【郑州转运中心】', 'location': None}, {'time': '2018-09-26 06:03:24', 'ftime': '2018-09-26 06:03:24', 'context': '[广州市]广州市【广州转运中心】，正发往【郑州转运中心】', 'location': None}, {'time': '2018-09-26 04:20:05', 'ftime': '2018-09-26 04:20:05', 'context': '[广州市]到广州市【广州转运中心】', 'location': None}, {'time': '2018-09-26 01:14:46', 'ftime': '2018-09-26 01:14:46', 'context': '[广州市]到广州市【广州东圃B站集货点】', 'location': None}, {'time': '2018-09-25 20:04:38', 'ftime': '2018-09-25 20:04:38', 'context': '[广州市]广州市【广州白云区十六部】，【江裕豪/18594982716】已揽收', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0.07491399999999999</v>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-09 16:34:48', 'context': '查无结果', 'ftime': '2019-09-09 16:34:48'}]}</t>
+        </is>
       </c>
       <c r="J12" s="3" t="n">
+        <v>0.06256299999999999</v>
+      </c>
+      <c r="K12" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1191,22 +1204,15 @@
       <c r="G13" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0.009214999999999999</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
     </row>
     <row r="14" ht="39.95" customHeight="1" s="2">
       <c r="A14" s="3" t="n">
@@ -1254,18 +1260,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-20 16:10:55', 'context': '查无结果', 'ftime': '2019-09-20 16:10:55'}]}</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>0.062958</v>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-03 17:23:24', 'ftime': '2019-09-03 17:23:24', 'context': '[湖南常德公司城西便民服务分部]快件已被 已签收 签收', 'location': '湖南常德公司城西便民服务分部'}, {'time': '2019-09-03 16:14:29', 'ftime': '2019-09-03 16:14:29', 'context': '[湖南常德公司城西便民服务分部]进行派件扫描；派送业务员：周建；联系电话：13397362182', 'location': '湖南常德公司城西便民服务分部'}, {'time': '2019-09-03 06:36:54', 'ftime': '2019-09-03 06:36:54', 'context': '[湖南常德公司]进行快件扫描，发往：湖南常德公司城西便民服务分部', 'location': '湖南常德公司'}, {'time': '2019-09-03 05:47:06', 'ftime': '2019-09-03 05:47:06', 'context': '[湖南常德公司]到达目的地网点，快件很快进行派送', 'location': '湖南常德公司'}, {'time': '2019-09-02 23:02:52', 'ftime': '2019-09-02 23:02:52', 'context': '[湖南长沙分拨中心]从站点发出，本次转运目的地：湖南常德公司', 'location': '湖南长沙分拨中心'}, {'time': '2019-09-02 20:09:04', 'ftime': '2019-09-02 20:09:04', 'context': '[湖南长沙分拨中心]在分拨中心进行称重扫描', 'location': '湖南长沙分拨中心'}]}</t>
+        </is>
       </c>
       <c r="J14" s="3" t="n">
+        <v>0.074571</v>
+      </c>
+      <c r="K14" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1306,22 +1317,15 @@
       <c r="G15" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>0.009417</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
     </row>
     <row r="16" ht="39.95" customHeight="1" s="2">
       <c r="A16" s="3" t="n">
@@ -1360,18 +1364,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 08:24:47', 'ftime': '2019-09-29 08:24:47', 'context': '离开【南宁中心】,下一站【石家中心】', 'location': '南宁中心'}, {'time': '2019-09-28 22:59:19', 'ftime': '2019-09-28 22:59:19', 'context': '到达【南宁中心】', 'location': '南宁中心'}, {'time': '2019-09-28 22:57:14', 'ftime': '2019-09-28 22:57:14', 'context': '离开【南宁市安吉小包营业部】,下一站【南宁中心】', 'location': '南宁市安吉小包营业部'}, {'time': '2019-09-28 22:04:02', 'ftime': '2019-09-28 22:04:02', 'context': '南宁市 【南宁市安吉小包营业部】已收件,揽投员:胡守香,电话:13000000000', 'location': '南宁市安吉小包营业部'}]}</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>0.073361</v>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-16 16:34:48', 'context': '查无结果', 'ftime': '2019-09-16 16:34:48'}]}</t>
+        </is>
       </c>
       <c r="J16" s="3" t="n">
+        <v>0.066492</v>
+      </c>
+      <c r="K16" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1412,22 +1421,15 @@
       <c r="G17" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>0.010033</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
     </row>
     <row r="18" ht="39.95" customHeight="1" s="2">
       <c r="A18" s="3" t="n">
@@ -1475,18 +1477,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-29 16:10:55', 'context': '查无结果', 'ftime': '2019-09-29 16:10:55'}]}</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>0.067541</v>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 20:12:24', 'ftime': '2019-10-07 20:12:24', 'context': '[乌鲁木齐航空部]从站点发出，本次转运目的地：乌鲁木齐航空部福鹰货代分部', 'location': None}, {'time': '2019-10-07 18:56:42', 'ftime': '2019-10-07 18:56:42', 'context': '[乌鲁木齐航空部]进行中转集包扫描，发往：北京分拨中心', 'location': None}, {'time': '2019-10-07 18:14:39', 'ftime': '2019-10-07 18:14:39', 'context': '[乌鲁木齐航空部]进行航空件称重扫描', 'location': None}, {'time': '2019-10-07 16:28:19', 'ftime': '2019-10-07 16:28:19', 'context': '[新疆乌鲁木齐沙依巴克区二公司]进行揽件扫描', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J18" s="3" t="n">
+        <v>0.06884899999999999</v>
+      </c>
+      <c r="K18" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1536,26 +1543,32 @@
       <c r="G19" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>0.009475000000000001</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
     </row>
     <row r="20" ht="39.95" customHeight="1" s="2"/>
     <row r="21" ht="39.95" customHeight="1" s="2"/>
   </sheetData>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+      <formula>"K"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+      <formula>"M"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="H2:H19" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"K,M"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>

--- a/data_excel/接口测试用例_ (5).xlsx
+++ b/data_excel/接口测试用例_ (5).xlsx
@@ -607,11 +607,11 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 22:47:38', 'ftime': '2019-10-07 22:47:38', 'context': '快件由【河北石家庄转运】发往【华北廊坊枢纽】', 'location': None}, {'time': '2019-10-07 22:21:56', 'ftime': '2019-10-07 22:21:56', 'context': '快件到达【河北石家庄转运】', 'location': None}, {'time': '2019-10-07 17:32:37', 'ftime': '2019-10-07 17:32:37', 'context': '快件由【保定定州0312-2386769】发往【河北石家庄转运】', 'location': None}, {'time': '2019-10-07 17:32:20', 'ftime': '2019-10-07 17:32:20', 'context': '【保定定州0312-2386769】的张晓杰已收件', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-16 12:59:15', 'ftime': '2019-09-16 12:59:15', 'context': '货物已由本人签收，感谢您选择京东物流！', 'location': ''}, {'time': '2019-09-16 07:24:44', 'ftime': '2019-09-16 07:24:44', 'context': '配送员开始配送，请您准备收货，配送员，曹建猛，手机号，17733430999', 'location': ''}, {'time': '2019-09-16 06:32:19', 'ftime': '2019-09-16 06:32:19', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-16 06:32:18', 'ftime': '2019-09-16 06:32:18', 'context': '货物已到达【秦皇岛孟营营业部】', 'location': ''}, {'time': '2019-09-16 01:58:54', 'ftime': '2019-09-16 01:58:54', 'context': '货物已完成分拣，离开【秦皇岛中转场】', 'location': ''}, {'time': '2019-09-16 01:58:44', 'ftime': '2019-09-16 01:58:44', 'context': '货物已到达【秦皇岛中转场】', 'location': ''}, {'time': '2019-09-15 11:58:51', 'ftime': '2019-09-15 11:58:51', 'context': '货物已完成分拣，离开【廊坊京安分拣中心】', 'location': ''}, {'time': '2019-09-15 09:18:43', 'ftime': '2019-09-15 09:18:43', 'context': '货物已完成分拣，离开【廊坊固安分拣中心】', 'location': ''}, {'time': '2019-09-14 01:40:43', 'ftime': '2019-09-14 01:40:43', 'context': '货物已完成分拣，离开【泉州外单分拣中心】', 'location': ''}, {'time': '2019-09-13 23:07:00', 'ftime': '2019-09-13 23:07:00', 'context': '货物已到达【泉州外单分拣中心】', 'location': ''}, {'time': '2019-09-13 21:21:25', 'ftime': '2019-09-13 21:21:25', 'context': '货物已完成分拣，离开【厦门分拨中心】', 'location': ''}, {'time': '2019-09-13 11:58:42', 'ftime': '2019-09-13 11:58:42', 'context': '配送员曾乔已经揽收完成', 'location': ''}, {'time': '2019-09-13 11:46:16', 'ftime': '2019-09-13 11:46:16', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-13 11:46:16', 'ftime': '2019-09-13 11:46:16', 'context': '配送员曾乔已经揽收完成', 'location': ''}, {'time': '2019-09-13 09:14:27', 'ftime': '2019-09-13 09:14:27', 'context': '配送员曾乔操作再取，再取原因为：托寄物未准备好,下次预计揽收时间为09月13日18:00-19:00', 'location': ''}, {'time': '2019-09-12 20:47:34', 'ftime': '2019-09-12 20:47:34', 'context': '揽收任务已分配给曾乔,配送员电话15359350939或0592-5219750', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.07087499999999999</v>
+        <v>0.07437199999999999</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>200</v>
@@ -720,11 +720,11 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-08-09 13:45:55', 'ftime': '2019-08-09 13:45:55', 'context': '客户签收人: 王永刚 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：18521126323，投诉电话：0432-66234000', 'location': ''}, {'time': '2019-08-09 07:26:45', 'ftime': '2019-08-09 07:26:45', 'context': '【吉林省吉林市桦甸市公司】 派件中 派件人: 陈跃喜 电话 18521126323 如有疑问，请联系：0432-66234000', 'location': ''}, {'time': '2019-08-09 07:24:37', 'ftime': '2019-08-09 07:24:37', 'context': '【吉林省吉林市桦甸市公司】 已收入', 'location': ''}, {'time': '2019-08-08 07:20:51', 'ftime': '2019-08-08 07:20:51', 'context': '【长春转运中心】 已发出 下一站 【吉林省吉林市桦甸市】', 'location': ''}, {'time': '2019-08-08 06:07:13', 'ftime': '2019-08-08 06:07:13', 'context': '【长春转运中心公司】 已收入', 'location': ''}, {'time': '2019-08-07 12:44:00', 'ftime': '2019-08-07 12:44:00', 'context': '【沈阳转运中心】 已发出 下一站 【长春转运中心】', 'location': ''}, {'time': '2019-08-07 08:03:47', 'ftime': '2019-08-07 08:03:47', 'context': '【沈阳转运中心公司】 已收入', 'location': ''}, {'time': '2019-08-06 04:35:01', 'ftime': '2019-08-06 04:35:01', 'context': '【武汉转运中心】 已发出 下一站 【沈阳转运中心】', 'location': ''}, {'time': '2019-08-06 04:19:22', 'ftime': '2019-08-06 04:19:22', 'context': '【武汉转运中心公司】 已打包', 'location': ''}, {'time': '2019-08-06 01:29:30', 'ftime': '2019-08-06 01:29:30', 'context': '【武汉转运中心公司】 已收入', 'location': ''}, {'time': '2019-08-05 18:59:01', 'ftime': '2019-08-05 18:59:01', 'context': '【湖北省随州市】 已发出 下一站 【武汉转运中心】', 'location': ''}, {'time': '2019-08-05 09:20:17', 'ftime': '2019-08-05 09:20:17', 'context': '【湖北省随州市公司】 已收件 取件人: 余星新 (18521118271)', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-25 14:43:59', 'ftime': '2019-09-25 14:43:59', 'context': '西安未央一部 的派件已签收，感谢您使用中通快运！', 'location': '陕西省-西安市-西安未央一部'}, {'time': '2019-09-25 09:46:21', 'ftime': '2019-09-25 09:46:21', 'context': '快件 已到达 西安未央一部', 'location': '陕西省-西安市-西安未央一部'}, {'time': '2019-09-25 08:04:39', 'ftime': '2019-09-25 08:04:39', 'context': '快件 已到达 西安未央一部', 'location': '陕西省-西安市-西安未央一部'}, {'time': '2019-09-25 00:45:03', 'ftime': '2019-09-25 00:45:03', 'context': '快件 已从 西安分拨中心 发出', 'location': '陕西省-西安市-西安分拨中心'}, {'time': '2019-09-24 22:25:15', 'ftime': '2019-09-24 22:25:15', 'context': '快件 已到达 西安分拨中心', 'location': '陕西省-西安市-西安分拨中心'}, {'time': '2019-09-24 03:41:30', 'ftime': '2019-09-24 03:41:30', 'context': '快件 已从 郑州分拨中心 发出', 'location': '河南省-郑州市-郑州分拨中心'}, {'time': '2019-09-23 16:59:30', 'ftime': '2019-09-23 16:59:30', 'context': '快件 已到达 郑州分拨中心', 'location': '河南省-郑州市-郑州分拨中心'}, {'time': '2019-09-23 14:35:54', 'ftime': '2019-09-23 14:35:54', 'context': '快件 已从 东区双汇 发出', 'location': '河南省-郑州市-东区双汇'}, {'time': '2019-09-23 14:35:16', 'ftime': '2019-09-23 14:35:16', 'context': '东区双汇 的 业务员 已收件', 'location': '河南省-郑州市-东区双汇'}]}</t>
         </is>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.078183</v>
+        <v>0.076725</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>200</v>
@@ -824,11 +824,11 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 12:07:37', 'ftime': '2019-09-29 12:07:37', 'context': '【舟山市】 快件已在 【舟山】 签收, 签收人: 同事/同学, 如有疑问请电联:17714188744 / 0580-8890989, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-09-29 07:06:04', 'ftime': '2019-09-29 07:06:04', 'context': '【舟山市】 【舟山】 的定海市区西五部（17714188744） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-09-29 07:03:14', 'ftime': '2019-09-29 07:03:14', 'context': '【舟山市】 快件已经到达 【舟山】', 'location': ''}, {'time': '2019-09-28 21:05:48', 'ftime': '2019-09-28 21:05:48', 'context': '【宁波市】 快件离开 【宁波中转部】 已发往 【舟山】', 'location': ''}, {'time': '2019-09-28 19:33:49', 'ftime': '2019-09-28 19:33:49', 'context': '【宁波市】 快件已经到达 【宁波中转部】', 'location': ''}, {'time': '2019-09-27 21:50:11', 'ftime': '2019-09-27 21:50:11', 'context': '【武汉市】 快件离开 【武汉中转部】 已发往 【宁波中转部】', 'location': ''}, {'time': '2019-09-27 21:46:19', 'ftime': '2019-09-27 21:46:19', 'context': '【武汉市】 快件已经到达 【武汉中转部】', 'location': ''}, {'time': '2019-09-27 18:31:01', 'ftime': '2019-09-27 18:31:01', 'context': '【武汉市】 【江岸三部】（027-82944339） 的 陈华平（13339992151） 已揽收', 'location': ''}, {'time': '2019-09-27 18:30:59', 'ftime': '2019-09-27 18:30:59', 'context': '【武汉市】 快件离开 【江岸三部】 已发往 【武汉中转部】', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-03 02:39:15', 'ftime': '2019-10-03 02:39:15', 'context': '[广东深圳公司福田区华发分部]快件已被 代签收如有问题请联系错分件【13510022491】。', 'location': '广东深圳公司福田区华发分部'}, {'time': '2019-10-02 17:40:56', 'ftime': '2019-10-02 17:40:56', 'context': '[广东深圳公司福田区华发分部]进行派件扫描；派送业务员：错分件；联系电话：13510022491', 'location': '广东深圳公司福田区华发分部'}, {'time': '2019-10-01 17:25:14', 'ftime': '2019-10-01 17:25:14', 'context': '[广东深圳公司福田华强东分部]进行快件扫描，发往：广东深圳公司福田区华发分部', 'location': '广东深圳公司福田华强东分部'}, {'time': '2019-10-01 14:08:33', 'ftime': '2019-10-01 14:08:33', 'context': '[广东深圳公司]进行快件扫描，发往：广东深圳公司福田华强东分部', 'location': '广东深圳公司'}, {'time': '2019-09-30 02:09:04', 'ftime': '2019-09-30 02:09:04', 'context': '[广东深圳公司中心分拨分部]进行揽件扫描', 'location': '广东深圳公司中心分拨分部'}, {'time': '2019-09-29 21:55:48', 'ftime': '2019-09-29 21:55:48', 'context': '[广东深圳公司新翰瑞车品专营店-KH分部]进行揽件扫描', 'location': '广东深圳公司新翰瑞车品专营店-KH分部'}]}</t>
         </is>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.113669</v>
+        <v>0.074963</v>
       </c>
       <c r="K6" s="3" t="n">
         <v>200</v>
@@ -928,11 +928,11 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-07 16:34:47', 'context': '查无结果', 'ftime': '2019-10-07 16:34:47'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 05:02:49', 'ftime': '2019-10-08 05:02:49', 'context': '【济南转运中心】 已发出 下一站 【山东省泰安市】', 'location': ''}, {'time': '2019-10-08 04:48:17', 'ftime': '2019-10-08 04:48:17', 'context': '【济南转运中心公司】 已收入', 'location': ''}, {'time': '2019-10-06 22:08:11', 'ftime': '2019-10-06 22:08:11', 'context': '【义乌转运中心】 已发出 下一站 【济南转运中心】', 'location': ''}, {'time': '2019-10-06 21:13:32', 'ftime': '2019-10-06 21:13:32', 'context': '【浙江省金华市义乌市万通】 已发出 下一站 【义乌转运中心】', 'location': ''}, {'time': '2019-10-06 20:44:22', 'ftime': '2019-10-06 20:44:22', 'context': '【浙江省金华市义乌市万通公司】 已打包', 'location': ''}, {'time': '2019-10-06 20:31:46', 'ftime': '2019-10-06 20:31:46', 'context': '【浙江省金华市义乌市万通公司】 已收件 取件人: 胡锡高 (18069919911)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.068636</v>
+        <v>0.08702699999999999</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>200</v>
@@ -1032,11 +1032,11 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-06 00:21:46', 'ftime': '2019-10-06 00:21:46', 'context': '河北石家庄转运中心-已装袋发往-江苏苏州转运中心', 'location': None}, {'time': '2019-10-06 00:21:46', 'ftime': '2019-10-06 00:21:46', 'context': '河北石家庄转运中心-已进行装车扫描', 'location': None}, {'time': '2019-10-06 00:18:01', 'ftime': '2019-10-06 00:18:01', 'context': '已到达-河北石家庄转运中心', 'location': None}, {'time': '2019-10-06 00:18:01', 'ftime': '2019-10-06 00:18:01', 'context': '快件已在【河北石家庄转运中心】进行卸车，扫描员【五连扫4】', 'location': None}, {'time': '2019-10-05 19:12:39', 'ftime': '2019-10-05 19:12:39', 'context': '已到达-河北衡水转运中心', 'location': None}, {'time': '2019-10-05 18:16:45', 'ftime': '2019-10-05 18:16:45', 'context': '河北衡水公司-已发往-河北衡水转运中心', 'location': None}, {'time': '2019-10-05 18:16:45', 'ftime': '2019-10-05 18:16:45', 'context': '河北衡水公司-已进行装袋扫描', 'location': None}, {'time': '2019-10-05 17:31:23', 'ftime': '2019-10-05 17:31:23', 'context': '河北衡水公司-小件7号(0318-2995543)-已收件', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 14:27:08', 'ftime': '2019-10-08 14:27:08', 'context': '【南平市】 快件已在 【南平政和】 签收, 签收人: 拍照签收, 如有疑问请电联:13055993352 / 13656966630, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-10-08 10:59:15', 'ftime': '2019-10-08 10:59:15', 'context': '【南平市】 【南平政和】 的陈甘文（13055993352） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-10-08 09:50:31', 'ftime': '2019-10-08 09:50:31', 'context': '【南平市】 快件已经到达 【南平政和】', 'location': ''}, {'time': '2019-10-08 01:39:30', 'ftime': '2019-10-08 01:39:30', 'context': '【三明市】 快件离开 【三明中转】 已发往 【南平政和】', 'location': ''}, {'time': '2019-10-08 01:30:55', 'ftime': '2019-10-08 01:30:55', 'context': '【三明市】 快件已经到达 【三明中转】', 'location': ''}, {'time': '2019-10-07 17:25:37', 'ftime': '2019-10-07 17:25:37', 'context': '【泉州市】 快件离开 【泉州中转部】 已发往 【三明中转】', 'location': ''}, {'time': '2019-10-07 17:16:52', 'ftime': '2019-10-07 17:16:52', 'context': '【泉州市】 快件已经到达 【泉州中转部】', 'location': ''}, {'time': '2019-10-06 21:50:18', 'ftime': '2019-10-06 21:50:18', 'context': '【合肥市】 快件离开 【合肥中转部】 已发往 【泉州中转部】', 'location': ''}, {'time': '2019-10-06 21:48:57', 'ftime': '2019-10-06 21:48:57', 'context': '【合肥市】 快件已经到达 【合肥中转部】', 'location': ''}, {'time': '2019-10-06 19:23:47', 'ftime': '2019-10-06 19:23:47', 'context': '【合肥市】 快件离开 【庐江】 已发往 【三明中转】', 'location': ''}, {'time': '2019-10-05 17:51:54', 'ftime': '2019-10-05 17:51:54', 'context': '【合肥市】 【庐江】（0551-87336090、0551-87389679） 的 总部（18905656100） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.075583</v>
+        <v>0.071261</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>200</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-09 16:34:48', 'context': '查无结果', 'ftime': '2019-09-09 16:34:48'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-05 16:42:57', 'ftime': '2019-10-05 16:42:57', 'context': '[内蒙古赤峰公司清河分部]快件已被 韵达马振禹（合作便利店） 代签收如有问题请联系马振禹【18100475737】。', 'location': '内蒙古赤峰公司清河分部'}, {'time': '2019-10-05 10:00:08', 'ftime': '2019-10-05 10:00:08', 'context': '[内蒙古赤峰公司清河分部]进行派件扫描；派送业务员：马振禹；联系电话：18100475737', 'location': '内蒙古赤峰公司清河分部'}, {'time': '2019-10-03 23:00:39', 'ftime': '2019-10-03 23:00:39', 'context': '[北京分拨中心]从站点发出，本次转运目的地：内蒙古赤峰公司', 'location': '北京分拨中心'}, {'time': '2019-10-03 22:58:11', 'ftime': '2019-10-03 22:58:11', 'context': '[北京分拨中心]在分拨中心进行卸车扫描', 'location': '北京分拨中心'}, {'time': '2019-10-01 21:14:39', 'ftime': '2019-10-01 21:14:39', 'context': '[江苏南京分拨中心]进行装车扫描，发往：北京张家湾分拨点', 'location': '江苏南京分拨中心'}, {'time': '2019-10-01 21:11:02', 'ftime': '2019-10-01 21:11:02', 'context': '[江苏南京分拨中心]在分拨中心进行称重扫描', 'location': '江苏南京分拨中心'}, {'time': '2019-10-01 18:48:13', 'ftime': '2019-10-01 18:48:13', 'context': '[江苏南京浦口区桥北公司]进行下级地点扫描，发往：内蒙古赤峰公司', 'location': '江苏南京浦口区桥北公司'}, {'time': '2019-10-01 15:19:35', 'ftime': '2019-10-01 15:19:35', 'context': '[江苏南京浦口区桥北公司]进行揽件扫描', 'location': '江苏南京浦口区桥北公司'}]}</t>
         </is>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0.06256299999999999</v>
+        <v>0.073395</v>
       </c>
       <c r="K12" s="3" t="n">
         <v>200</v>
@@ -1267,11 +1267,11 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-03 17:23:24', 'ftime': '2019-09-03 17:23:24', 'context': '[湖南常德公司城西便民服务分部]快件已被 已签收 签收', 'location': '湖南常德公司城西便民服务分部'}, {'time': '2019-09-03 16:14:29', 'ftime': '2019-09-03 16:14:29', 'context': '[湖南常德公司城西便民服务分部]进行派件扫描；派送业务员：周建；联系电话：13397362182', 'location': '湖南常德公司城西便民服务分部'}, {'time': '2019-09-03 06:36:54', 'ftime': '2019-09-03 06:36:54', 'context': '[湖南常德公司]进行快件扫描，发往：湖南常德公司城西便民服务分部', 'location': '湖南常德公司'}, {'time': '2019-09-03 05:47:06', 'ftime': '2019-09-03 05:47:06', 'context': '[湖南常德公司]到达目的地网点，快件很快进行派送', 'location': '湖南常德公司'}, {'time': '2019-09-02 23:02:52', 'ftime': '2019-09-02 23:02:52', 'context': '[湖南长沙分拨中心]从站点发出，本次转运目的地：湖南常德公司', 'location': '湖南长沙分拨中心'}, {'time': '2019-09-02 20:09:04', 'ftime': '2019-09-02 20:09:04', 'context': '[湖南长沙分拨中心]在分拨中心进行称重扫描', 'location': '湖南长沙分拨中心'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-27 16:54:52', 'context': '查无结果', 'ftime': '2019-09-27 16:54:52'}]}</t>
         </is>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0.074571</v>
+        <v>0.06597600000000001</v>
       </c>
       <c r="K14" s="3" t="n">
         <v>200</v>
@@ -1371,11 +1371,11 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-16 16:34:48', 'context': '查无结果', 'ftime': '2019-09-16 16:34:48'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-30 16:28:23', 'ftime': '2019-09-30 16:28:23', 'context': '【宜宾市】 【宜宾】 的五粮液厂区李川艳（15520641026） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': None}, {'time': '2019-09-29 16:29:01', 'ftime': '2019-09-29 16:29:01', 'context': '【宜宾市】 快件已经到达 【宜宾】', 'location': None}, {'time': '2019-09-21 16:18:59', 'ftime': '2019-09-21 16:18:59', 'context': '【资阳市】 快件已由【快递超市的丰裕镇代理点】代签收, 如有问题请电联（18628827868 / 18628827868）, 感谢您使用中通快递, 期待再次为您服务!', 'location': None}, {'time': '2019-09-21 15:58:03', 'ftime': '2019-09-21 15:58:03', 'context': '【资阳市】 【资阳丰裕镇】 的丰裕赵纯刚（18628827868） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': None}, {'time': '2019-09-21 15:58:02', 'ftime': '2019-09-21 15:58:02', 'context': '【资阳市】 快件已经到达 【资阳丰裕镇】', 'location': None}, {'time': '2019-09-21 09:16:25', 'ftime': '2019-09-21 09:16:25', 'context': '【资阳市】 快件离开 【资阳】 已发往 【资阳丰裕镇】', 'location': None}, {'time': '2019-09-21 07:56:11', 'ftime': '2019-09-21 07:56:11', 'context': '【资阳市】 快件已经到达 【资阳】', 'location': None}, {'time': '2019-09-21 01:24:13', 'ftime': '2019-09-21 01:24:13', 'context': '【成都市】 快件离开 【成都中转】 已发往 【资阳】', 'location': None}, {'time': '2019-09-20 23:37:39', 'ftime': '2019-09-20 23:37:39', 'context': '【成都市】 快件已经到达 【成都中转】', 'location': None}, {'time': '2019-09-20 17:15:19', 'ftime': '2019-09-20 17:15:19', 'context': '【宜宾市】 快件离开 【宜宾】 已发往 【南充中转站】', 'location': None}, {'time': '2019-09-20 12:17:23', 'ftime': '2019-09-20 12:17:23', 'context': '【宜宾市】 【宜宾】（0831-7176663、0831-8684444） 的 上江北唐修稳（18190582731） 已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.066492</v>
+        <v>0.076392</v>
       </c>
       <c r="K16" s="3" t="n">
         <v>200</v>
@@ -1484,11 +1484,11 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 20:12:24', 'ftime': '2019-10-07 20:12:24', 'context': '[乌鲁木齐航空部]从站点发出，本次转运目的地：乌鲁木齐航空部福鹰货代分部', 'location': None}, {'time': '2019-10-07 18:56:42', 'ftime': '2019-10-07 18:56:42', 'context': '[乌鲁木齐航空部]进行中转集包扫描，发往：北京分拨中心', 'location': None}, {'time': '2019-10-07 18:14:39', 'ftime': '2019-10-07 18:14:39', 'context': '[乌鲁木齐航空部]进行航空件称重扫描', 'location': None}, {'time': '2019-10-07 16:28:19', 'ftime': '2019-10-07 16:28:19', 'context': '[新疆乌鲁木齐沙依巴克区二公司]进行揽件扫描', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-03 16:50:52', 'ftime': '2019-10-03 16:50:52', 'context': '[周口市]已签收,本人签收 :本人签收,投递员:高广坤,电话:18439465893', 'location': None}, {'time': '2019-10-03 14:26:39', 'ftime': '2019-10-03 14:26:39', 'context': '[周口市]邮政河南省沈丘县冯营】安排投递,投递员:高广坤,电话:18439465893', 'location': None}, {'time': '2019-10-03 14:25:39', 'ftime': '2019-10-03 14:25:39', 'context': '[周口市]到达【邮政河南省沈丘县冯营】', 'location': None}, {'time': '2019-10-03 09:32:44', 'ftime': '2019-10-03 09:32:44', 'context': '[周口市]离开【河南省沈丘县沈丘揽投营业部】,下一站【邮政河南省沈丘县冯营】', 'location': None}, {'time': '2019-10-03 08:40:00', 'ftime': '2019-10-03 08:40:00', 'context': '[周口市]离开【沈丘县沈丘县揽投部】,下一站【沈丘处理】', 'location': None}, {'time': '2019-10-03 07:51:16', 'ftime': '2019-10-03 07:51:16', 'context': '[周口市]【沈丘县沈丘县揽投部】已收件,揽投员:李全亮,电话:18336591817', 'location': None}]}</t>
         </is>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.06884899999999999</v>
+        <v>0.070988</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>200</v>
